--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_24_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_24_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1647931.799385194</v>
+        <v>-1648606.065604005</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10305771.19863257</v>
+        <v>10305771.19863255</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13051060.31203629</v>
+        <v>13051060.3120363</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,55 +1379,55 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>16.10261709965982</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>103.0193684323635</v>
-      </c>
-      <c r="G11" t="n">
-        <v>103.0193684323635</v>
-      </c>
-      <c r="H11" t="n">
-        <v>90.73945971522573</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>103.0193684323635</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>74.6368426155658</v>
       </c>
     </row>
     <row r="12">
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>20.99909704345507</v>
+        <v>20.99909704345502</v>
       </c>
       <c r="V12" t="n">
-        <v>27.8749279380113</v>
+        <v>27.87492793801124</v>
       </c>
       <c r="W12" t="n">
-        <v>46.76932394950563</v>
+        <v>46.76932394950558</v>
       </c>
       <c r="X12" t="n">
-        <v>0.847325992063503</v>
+        <v>0.8473259920634462</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.7570365658903881</v>
+        <v>0.7570365658903313</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>15.39869716835005</v>
+        <v>15.39869716835</v>
       </c>
       <c r="T13" t="n">
-        <v>22.11468578343619</v>
+        <v>22.11468578343613</v>
       </c>
       <c r="U13" t="n">
-        <v>81.38181383316078</v>
+        <v>81.38181383316072</v>
       </c>
       <c r="V13" t="n">
-        <v>47.21198411241403</v>
+        <v>47.21198411241397</v>
       </c>
       <c r="W13" t="n">
-        <v>81.59733912517703</v>
+        <v>81.59733912517697</v>
       </c>
       <c r="X13" t="n">
-        <v>20.78399617762318</v>
+        <v>20.78399617762312</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.65899414068082</v>
+        <v>13.65899414068076</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>103.0193684323635</v>
       </c>
       <c r="H14" t="n">
-        <v>103.0193684323635</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>16.10261709965991</v>
       </c>
       <c r="U14" t="n">
-        <v>46.38220823434503</v>
+        <v>46.38220823434497</v>
       </c>
       <c r="V14" t="n">
-        <v>103.0193684323635</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>28.25463438122074</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.35725148088068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1740,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>20.99909704345516</v>
+        <v>20.9990970434551</v>
       </c>
       <c r="V15" t="n">
-        <v>27.87492793801138</v>
+        <v>27.87492793801133</v>
       </c>
       <c r="W15" t="n">
-        <v>46.76932394950572</v>
+        <v>46.76932394950566</v>
       </c>
       <c r="X15" t="n">
-        <v>0.8473259920635883</v>
+        <v>0.8473259920635314</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.7570365658904734</v>
+        <v>0.7570365658904166</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>15.39869716835014</v>
+        <v>15.39869716835008</v>
       </c>
       <c r="T16" t="n">
-        <v>22.11468578343627</v>
+        <v>22.11468578343622</v>
       </c>
       <c r="U16" t="n">
-        <v>81.38181383316086</v>
+        <v>81.38181383316081</v>
       </c>
       <c r="V16" t="n">
-        <v>47.21198411241411</v>
+        <v>47.21198411241406</v>
       </c>
       <c r="W16" t="n">
-        <v>81.59733912517711</v>
+        <v>81.59733912517706</v>
       </c>
       <c r="X16" t="n">
-        <v>20.78399617762327</v>
+        <v>20.78399617762321</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.6589941406809</v>
+        <v>13.65899414068085</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14.60329614542125</v>
+        <v>14.60329614542087</v>
       </c>
       <c r="X17" t="n">
         <v>35.09342810647689</v>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>48.09616909148843</v>
+        <v>48.09616909148849</v>
       </c>
       <c r="C20" t="n">
-        <v>30.63521919901541</v>
+        <v>30.63521919901547</v>
       </c>
       <c r="D20" t="n">
-        <v>20.04536904869082</v>
+        <v>20.04536904869087</v>
       </c>
       <c r="E20" t="n">
-        <v>47.29269750026964</v>
+        <v>47.2926975002697</v>
       </c>
       <c r="F20" t="n">
-        <v>72.2383731697193</v>
+        <v>72.23837316971935</v>
       </c>
       <c r="G20" t="n">
-        <v>80.1927466671732</v>
+        <v>80.19274666717325</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>14.60329614542087</v>
+        <v>14.60329614542093</v>
       </c>
       <c r="X20" t="n">
-        <v>35.09342810647718</v>
+        <v>35.09342810647695</v>
       </c>
       <c r="Y20" t="n">
-        <v>51.60026608406145</v>
+        <v>51.6002660840615</v>
       </c>
     </row>
     <row r="21">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>48.09616909148843</v>
+        <v>48.09616909148849</v>
       </c>
       <c r="C23" t="n">
-        <v>30.63521919901541</v>
+        <v>30.63521919901547</v>
       </c>
       <c r="D23" t="n">
-        <v>20.04536904869082</v>
+        <v>20.04536904869087</v>
       </c>
       <c r="E23" t="n">
-        <v>47.29269750026964</v>
+        <v>47.2926975002697</v>
       </c>
       <c r="F23" t="n">
-        <v>72.2383731697193</v>
+        <v>72.23837316971935</v>
       </c>
       <c r="G23" t="n">
-        <v>80.19274666717318</v>
+        <v>80.19274666717325</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>14.60329614542087</v>
+        <v>14.60329614542093</v>
       </c>
       <c r="X23" t="n">
-        <v>35.09342810647689</v>
+        <v>35.09342810647695</v>
       </c>
       <c r="Y23" t="n">
-        <v>51.60026608406145</v>
+        <v>51.6002660840615</v>
       </c>
     </row>
     <row r="24">
@@ -2792,7 +2792,7 @@
         <v>190.4670024273978</v>
       </c>
       <c r="C29" t="n">
-        <v>173.0060525349247</v>
+        <v>173.0060525349248</v>
       </c>
       <c r="D29" t="n">
         <v>162.4162023846002</v>
@@ -2801,13 +2801,13 @@
         <v>189.663530836179</v>
       </c>
       <c r="F29" t="n">
-        <v>214.6092065056286</v>
+        <v>214.6092065056287</v>
       </c>
       <c r="G29" t="n">
         <v>222.5635800030825</v>
       </c>
       <c r="H29" t="n">
-        <v>142.3708333359093</v>
+        <v>142.3708333359094</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>5.990277636502254</v>
+        <v>5.990277636502274</v>
       </c>
       <c r="T29" t="n">
-        <v>28.76143707499105</v>
+        <v>28.76143707499108</v>
       </c>
       <c r="U29" t="n">
-        <v>59.04102820967611</v>
+        <v>59.04102820967614</v>
       </c>
       <c r="V29" t="n">
         <v>135.4854192340521</v>
@@ -2855,7 +2855,7 @@
         <v>156.9741294813302</v>
       </c>
       <c r="X29" t="n">
-        <v>177.4642614423862</v>
+        <v>177.4642614423863</v>
       </c>
       <c r="Y29" t="n">
         <v>193.9710994199708</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>6.87928051265837</v>
+        <v>6.879280512658398</v>
       </c>
       <c r="U30" t="n">
-        <v>33.65791701878624</v>
+        <v>33.65791701878627</v>
       </c>
       <c r="V30" t="n">
-        <v>40.53374791334247</v>
+        <v>40.53374791334249</v>
       </c>
       <c r="W30" t="n">
-        <v>59.4281439248368</v>
+        <v>59.42814392483683</v>
       </c>
       <c r="X30" t="n">
-        <v>13.50614596739467</v>
+        <v>13.5061459673947</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.41585654122156</v>
+        <v>13.41585654122159</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>28.05751714368123</v>
+        <v>28.05751714368125</v>
       </c>
       <c r="T31" t="n">
-        <v>34.77350575876736</v>
+        <v>34.77350575876739</v>
       </c>
       <c r="U31" t="n">
-        <v>94.04063380849195</v>
+        <v>94.04063380849198</v>
       </c>
       <c r="V31" t="n">
-        <v>59.8708040877452</v>
+        <v>59.87080408774523</v>
       </c>
       <c r="W31" t="n">
-        <v>94.2561591005082</v>
+        <v>94.25615910050823</v>
       </c>
       <c r="X31" t="n">
-        <v>33.44281615295435</v>
+        <v>33.44281615295438</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.31781411601199</v>
+        <v>26.31781411601202</v>
       </c>
     </row>
     <row r="32">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>160.0465149023284</v>
+        <v>160.0465149023289</v>
       </c>
       <c r="C35" t="n">
-        <v>142.5855650098554</v>
+        <v>142.5855650098558</v>
       </c>
       <c r="D35" t="n">
-        <v>131.9957148595308</v>
+        <v>131.9957148595312</v>
       </c>
       <c r="E35" t="n">
-        <v>159.2430433111096</v>
+        <v>159.2430433111101</v>
       </c>
       <c r="F35" t="n">
-        <v>184.1887189805593</v>
+        <v>184.1887189805597</v>
       </c>
       <c r="G35" t="n">
-        <v>192.1430924780131</v>
+        <v>192.1430924780136</v>
       </c>
       <c r="H35" t="n">
-        <v>111.95034581084</v>
+        <v>111.9503458108404</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>28.62054068460674</v>
+        <v>28.62054068460719</v>
       </c>
       <c r="V35" t="n">
-        <v>105.0649317089827</v>
+        <v>105.0649317089832</v>
       </c>
       <c r="W35" t="n">
-        <v>126.5536419562608</v>
+        <v>126.5536419562613</v>
       </c>
       <c r="X35" t="n">
-        <v>147.0437739173169</v>
+        <v>147.0437739173173</v>
       </c>
       <c r="Y35" t="n">
-        <v>163.5506118949014</v>
+        <v>163.5506118949019</v>
       </c>
     </row>
     <row r="36">
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3.237429493716866</v>
+        <v>3.237429493717321</v>
       </c>
       <c r="V36" t="n">
-        <v>10.11326038827309</v>
+        <v>10.11326038827355</v>
       </c>
       <c r="W36" t="n">
-        <v>29.00765639976743</v>
+        <v>29.00765639976788</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4.353018233697981</v>
+        <v>4.353018233698436</v>
       </c>
       <c r="U37" t="n">
-        <v>63.62014628342256</v>
+        <v>63.62014628342302</v>
       </c>
       <c r="V37" t="n">
-        <v>29.45031656267582</v>
+        <v>29.45031656267628</v>
       </c>
       <c r="W37" t="n">
-        <v>63.83567157543882</v>
+        <v>63.83567157543928</v>
       </c>
       <c r="X37" t="n">
-        <v>3.022328627884974</v>
+        <v>3.022328627885429</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>160.0465149023284</v>
+        <v>160.0465149023289</v>
       </c>
       <c r="C38" t="n">
-        <v>142.5855650098554</v>
+        <v>142.5855650098558</v>
       </c>
       <c r="D38" t="n">
-        <v>131.9957148595308</v>
+        <v>131.9957148595312</v>
       </c>
       <c r="E38" t="n">
-        <v>159.2430433111096</v>
+        <v>159.2430433111101</v>
       </c>
       <c r="F38" t="n">
-        <v>184.1887189805593</v>
+        <v>184.1887189805597</v>
       </c>
       <c r="G38" t="n">
-        <v>192.1430924780131</v>
+        <v>192.1430924780136</v>
       </c>
       <c r="H38" t="n">
-        <v>111.95034581084</v>
+        <v>111.9503458108404</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>28.62054068460674</v>
+        <v>28.62054068460719</v>
       </c>
       <c r="V38" t="n">
-        <v>105.0649317089827</v>
+        <v>105.0649317089832</v>
       </c>
       <c r="W38" t="n">
-        <v>126.5536419562608</v>
+        <v>126.5536419562613</v>
       </c>
       <c r="X38" t="n">
-        <v>147.0437739173169</v>
+        <v>147.0437739173173</v>
       </c>
       <c r="Y38" t="n">
-        <v>163.5506118949014</v>
+        <v>163.5506118949019</v>
       </c>
     </row>
     <row r="39">
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3.237429493716866</v>
+        <v>3.237429493717321</v>
       </c>
       <c r="V39" t="n">
-        <v>10.11326038827309</v>
+        <v>10.11326038827355</v>
       </c>
       <c r="W39" t="n">
-        <v>29.00765639976743</v>
+        <v>29.00765639976788</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4.353018233697981</v>
+        <v>4.353018233698436</v>
       </c>
       <c r="U40" t="n">
-        <v>63.62014628342256</v>
+        <v>63.62014628342302</v>
       </c>
       <c r="V40" t="n">
-        <v>29.45031656267582</v>
+        <v>29.45031656267628</v>
       </c>
       <c r="W40" t="n">
-        <v>63.83567157543882</v>
+        <v>63.83567157543928</v>
       </c>
       <c r="X40" t="n">
-        <v>3.022328627884974</v>
+        <v>3.022328627885429</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>160.0465149023285</v>
+        <v>160.0465149023289</v>
       </c>
       <c r="C41" t="n">
-        <v>142.5855650098555</v>
+        <v>142.5855650098559</v>
       </c>
       <c r="D41" t="n">
-        <v>131.9957148595309</v>
+        <v>131.9957148595313</v>
       </c>
       <c r="E41" t="n">
-        <v>159.2430433111097</v>
+        <v>159.2430433111101</v>
       </c>
       <c r="F41" t="n">
-        <v>184.1887189805593</v>
+        <v>184.1887189805598</v>
       </c>
       <c r="G41" t="n">
-        <v>192.1430924780132</v>
+        <v>192.1430924780137</v>
       </c>
       <c r="H41" t="n">
-        <v>111.95034581084</v>
+        <v>111.9503458108405</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>28.62054068460682</v>
+        <v>28.62054068460728</v>
       </c>
       <c r="V41" t="n">
-        <v>105.0649317089828</v>
+        <v>105.0649317089833</v>
       </c>
       <c r="W41" t="n">
-        <v>126.5536419562609</v>
+        <v>126.5536419562614</v>
       </c>
       <c r="X41" t="n">
-        <v>147.0437739173169</v>
+        <v>147.0437739173174</v>
       </c>
       <c r="Y41" t="n">
-        <v>163.5506118949015</v>
+        <v>163.5506118949019</v>
       </c>
     </row>
     <row r="42">
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>3.237429493716951</v>
+        <v>3.237429493717406</v>
       </c>
       <c r="V42" t="n">
-        <v>10.11326038827318</v>
+        <v>10.11326038827363</v>
       </c>
       <c r="W42" t="n">
-        <v>29.00765639976751</v>
+        <v>29.00765639976797</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>4.353018233698067</v>
+        <v>4.353018233698521</v>
       </c>
       <c r="U43" t="n">
-        <v>63.62014628342265</v>
+        <v>63.6201462834231</v>
       </c>
       <c r="V43" t="n">
-        <v>29.45031656267591</v>
+        <v>29.45031656267636</v>
       </c>
       <c r="W43" t="n">
-        <v>63.83567157543891</v>
+        <v>63.83567157543936</v>
       </c>
       <c r="X43" t="n">
-        <v>3.022328627885059</v>
+        <v>3.022328627885514</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>160.0465149023285</v>
+        <v>160.0465149023289</v>
       </c>
       <c r="C44" t="n">
-        <v>142.5855650098555</v>
+        <v>142.5855650098559</v>
       </c>
       <c r="D44" t="n">
-        <v>131.9957148595309</v>
+        <v>131.9957148595313</v>
       </c>
       <c r="E44" t="n">
-        <v>159.2430433111097</v>
+        <v>159.2430433111101</v>
       </c>
       <c r="F44" t="n">
-        <v>184.1887189805593</v>
+        <v>184.1887189805598</v>
       </c>
       <c r="G44" t="n">
-        <v>192.1430924780132</v>
+        <v>192.1430924780137</v>
       </c>
       <c r="H44" t="n">
-        <v>111.95034581084</v>
+        <v>111.9503458108405</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>28.62054068460682</v>
+        <v>28.62054068460728</v>
       </c>
       <c r="V44" t="n">
-        <v>105.0649317089828</v>
+        <v>105.0649317089833</v>
       </c>
       <c r="W44" t="n">
-        <v>126.5536419562609</v>
+        <v>126.5536419562614</v>
       </c>
       <c r="X44" t="n">
-        <v>147.0437739173169</v>
+        <v>147.0437739173174</v>
       </c>
       <c r="Y44" t="n">
-        <v>163.5506118949015</v>
+        <v>163.5506118949019</v>
       </c>
     </row>
     <row r="45">
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>3.237429493716951</v>
+        <v>3.237429493717406</v>
       </c>
       <c r="V45" t="n">
-        <v>10.11326038827318</v>
+        <v>10.11326038827363</v>
       </c>
       <c r="W45" t="n">
-        <v>29.00765639976751</v>
+        <v>29.00765639976797</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>4.353018233698067</v>
+        <v>4.353018233698521</v>
       </c>
       <c r="U46" t="n">
-        <v>63.62014628342265</v>
+        <v>63.6201462834231</v>
       </c>
       <c r="V46" t="n">
-        <v>29.45031656267591</v>
+        <v>29.45031656267636</v>
       </c>
       <c r="W46" t="n">
-        <v>63.83567157543891</v>
+        <v>63.83567157543936</v>
       </c>
       <c r="X46" t="n">
-        <v>3.022328627885059</v>
+        <v>3.022328627885514</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>308.0175056159555</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="C11" t="n">
-        <v>308.0175056159555</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="D11" t="n">
-        <v>308.0175056159555</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="E11" t="n">
-        <v>308.0175056159555</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="F11" t="n">
-        <v>203.957537502457</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="G11" t="n">
-        <v>99.89756938895852</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="H11" t="n">
         <v>8.24154947458908</v>
       </c>
       <c r="I11" t="n">
-        <v>8.24154947458908</v>
+        <v>20.77378125016702</v>
       </c>
       <c r="J11" t="n">
-        <v>71.56905565480477</v>
+        <v>84.10128743038277</v>
       </c>
       <c r="K11" t="n">
-        <v>71.56905565480477</v>
+        <v>128.568586853068</v>
       </c>
       <c r="L11" t="n">
-        <v>173.5582304028446</v>
+        <v>171.8262513238232</v>
       </c>
       <c r="M11" t="n">
-        <v>230.4974690377611</v>
+        <v>228.7654899587398</v>
       </c>
       <c r="N11" t="n">
-        <v>289.6891001656356</v>
+        <v>228.7654899587398</v>
       </c>
       <c r="O11" t="n">
-        <v>289.6891001656356</v>
+        <v>228.7654899587398</v>
       </c>
       <c r="P11" t="n">
-        <v>371.4732563299681</v>
+        <v>228.7654899587398</v>
       </c>
       <c r="Q11" t="n">
-        <v>412.077473729454</v>
+        <v>321.5970706825967</v>
       </c>
       <c r="R11" t="n">
-        <v>412.077473729454</v>
+        <v>405.4756168140133</v>
       </c>
       <c r="S11" t="n">
         <v>412.077473729454</v>
       </c>
       <c r="T11" t="n">
-        <v>412.077473729454</v>
+        <v>395.8122039318177</v>
       </c>
       <c r="U11" t="n">
-        <v>412.077473729454</v>
+        <v>395.8122039318177</v>
       </c>
       <c r="V11" t="n">
-        <v>412.077473729454</v>
+        <v>291.7522358183192</v>
       </c>
       <c r="W11" t="n">
-        <v>308.0175056159555</v>
+        <v>187.6922677048207</v>
       </c>
       <c r="X11" t="n">
-        <v>308.0175056159555</v>
+        <v>187.6922677048207</v>
       </c>
       <c r="Y11" t="n">
-        <v>308.0175056159555</v>
+        <v>112.3015175880876</v>
       </c>
     </row>
     <row r="12">
@@ -5112,55 +5112,55 @@
         <v>8.24154947458908</v>
       </c>
       <c r="H12" t="n">
-        <v>102.4211268593618</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="I12" t="n">
-        <v>102.4211268593618</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="J12" t="n">
-        <v>102.4211268593618</v>
+        <v>106.4715610795645</v>
       </c>
       <c r="K12" t="n">
-        <v>102.4211268593618</v>
+        <v>106.4715610795645</v>
       </c>
       <c r="L12" t="n">
-        <v>102.4211268593618</v>
+        <v>106.4715610795645</v>
       </c>
       <c r="M12" t="n">
-        <v>102.4211268593618</v>
+        <v>106.4715610795645</v>
       </c>
       <c r="N12" t="n">
-        <v>106.4715610795647</v>
+        <v>106.4715610795645</v>
       </c>
       <c r="O12" t="n">
-        <v>106.4715610795647</v>
+        <v>106.4715610795645</v>
       </c>
       <c r="P12" t="n">
-        <v>106.4715610795647</v>
+        <v>106.4715610795645</v>
       </c>
       <c r="Q12" t="n">
-        <v>106.4715610795647</v>
+        <v>106.4715610795645</v>
       </c>
       <c r="R12" t="n">
-        <v>106.4715610795647</v>
+        <v>106.4715610795645</v>
       </c>
       <c r="S12" t="n">
-        <v>106.4715610795647</v>
+        <v>106.4715610795645</v>
       </c>
       <c r="T12" t="n">
-        <v>106.4715610795647</v>
+        <v>106.4715610795645</v>
       </c>
       <c r="U12" t="n">
-        <v>85.26035194476164</v>
+        <v>85.2603519447614</v>
       </c>
       <c r="V12" t="n">
-        <v>57.10385907808356</v>
+        <v>57.10385907808337</v>
       </c>
       <c r="W12" t="n">
-        <v>9.862117714946546</v>
+        <v>9.862117714946431</v>
       </c>
       <c r="X12" t="n">
-        <v>9.006232874478361</v>
+        <v>9.006232874478304</v>
       </c>
       <c r="Y12" t="n">
         <v>8.24154947458908</v>
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.24154947458908</v>
+        <v>33.08429171377104</v>
       </c>
       <c r="C13" t="n">
-        <v>8.24154947458908</v>
+        <v>70.38634144542938</v>
       </c>
       <c r="D13" t="n">
-        <v>8.24154947458908</v>
+        <v>103.1059516845669</v>
       </c>
       <c r="E13" t="n">
-        <v>8.24154947458908</v>
+        <v>161.0127312837633</v>
       </c>
       <c r="F13" t="n">
-        <v>8.24154947458908</v>
+        <v>161.0127312837633</v>
       </c>
       <c r="G13" t="n">
-        <v>8.24154947458908</v>
+        <v>197.787811399467</v>
       </c>
       <c r="H13" t="n">
-        <v>8.24154947458908</v>
+        <v>197.787811399467</v>
       </c>
       <c r="I13" t="n">
-        <v>8.24154947458908</v>
+        <v>197.787811399467</v>
       </c>
       <c r="J13" t="n">
-        <v>100.2216021012432</v>
+        <v>197.787811399467</v>
       </c>
       <c r="K13" t="n">
-        <v>100.2216021012432</v>
+        <v>197.787811399467</v>
       </c>
       <c r="L13" t="n">
-        <v>100.2216021012432</v>
+        <v>197.787811399467</v>
       </c>
       <c r="M13" t="n">
-        <v>191.2498599193191</v>
+        <v>197.787811399467</v>
       </c>
       <c r="N13" t="n">
-        <v>293.2390346673589</v>
+        <v>197.787811399467</v>
       </c>
       <c r="O13" t="n">
-        <v>293.2390346673589</v>
+        <v>293.2390346673585</v>
       </c>
       <c r="P13" t="n">
-        <v>293.2390346673589</v>
+        <v>293.2390346673585</v>
       </c>
       <c r="Q13" t="n">
-        <v>293.2390346673589</v>
+        <v>293.2390346673585</v>
       </c>
       <c r="R13" t="n">
-        <v>293.2390346673589</v>
+        <v>293.2390346673585</v>
       </c>
       <c r="S13" t="n">
-        <v>277.684795103369</v>
+        <v>277.6847951033686</v>
       </c>
       <c r="T13" t="n">
-        <v>255.3467286554536</v>
+        <v>255.3467286554533</v>
       </c>
       <c r="U13" t="n">
-        <v>173.1428762987255</v>
+        <v>173.1428762987253</v>
       </c>
       <c r="V13" t="n">
-        <v>125.4540034579033</v>
+        <v>125.4540034579031</v>
       </c>
       <c r="W13" t="n">
-        <v>43.03244878600727</v>
+        <v>43.03244878600715</v>
       </c>
       <c r="X13" t="n">
-        <v>22.03851325305455</v>
+        <v>22.0385132530545</v>
       </c>
       <c r="Y13" t="n">
         <v>8.24154947458908</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>216.361485701586</v>
+        <v>320.4214538150846</v>
       </c>
       <c r="C14" t="n">
-        <v>216.361485701586</v>
+        <v>216.3614857015862</v>
       </c>
       <c r="D14" t="n">
-        <v>216.361485701586</v>
+        <v>216.3614857015862</v>
       </c>
       <c r="E14" t="n">
-        <v>216.361485701586</v>
+        <v>112.3015175880876</v>
       </c>
       <c r="F14" t="n">
-        <v>216.361485701586</v>
+        <v>112.3015175880876</v>
       </c>
       <c r="G14" t="n">
-        <v>112.3015175880876</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="H14" t="n">
         <v>8.24154947458908</v>
       </c>
       <c r="I14" t="n">
-        <v>20.77378125016688</v>
+        <v>20.77378125016694</v>
       </c>
       <c r="J14" t="n">
-        <v>20.77378125016688</v>
+        <v>20.77378125016694</v>
       </c>
       <c r="K14" t="n">
-        <v>49.170710850418</v>
+        <v>65.24108067285208</v>
       </c>
       <c r="L14" t="n">
-        <v>151.1598855984579</v>
+        <v>167.2302554208919</v>
       </c>
       <c r="M14" t="n">
-        <v>208.0991242333743</v>
+        <v>167.2302554208919</v>
       </c>
       <c r="N14" t="n">
-        <v>310.0882989814141</v>
+        <v>267.6479454315828</v>
       </c>
       <c r="O14" t="n">
-        <v>412.077473729454</v>
+        <v>321.5116315045051</v>
       </c>
       <c r="P14" t="n">
-        <v>412.077473729454</v>
+        <v>362.7081272235578</v>
       </c>
       <c r="Q14" t="n">
-        <v>412.077473729454</v>
+        <v>395.9969064890378</v>
       </c>
       <c r="R14" t="n">
-        <v>412.077473729454</v>
+        <v>405.4756168140134</v>
       </c>
       <c r="S14" t="n">
         <v>412.077473729454</v>
       </c>
       <c r="T14" t="n">
-        <v>412.077473729454</v>
+        <v>395.8122039318177</v>
       </c>
       <c r="U14" t="n">
-        <v>365.2267583412267</v>
+        <v>348.9614885435905</v>
       </c>
       <c r="V14" t="n">
-        <v>261.1667902277282</v>
+        <v>348.9614885435905</v>
       </c>
       <c r="W14" t="n">
-        <v>261.1667902277282</v>
+        <v>320.4214538150846</v>
       </c>
       <c r="X14" t="n">
-        <v>261.1667902277282</v>
+        <v>320.4214538150846</v>
       </c>
       <c r="Y14" t="n">
-        <v>216.361485701586</v>
+        <v>320.4214538150846</v>
       </c>
     </row>
     <row r="15">
@@ -5361,43 +5361,43 @@
         <v>8.24154947458908</v>
       </c>
       <c r="L15" t="n">
-        <v>106.4715610795652</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="M15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="N15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="O15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="P15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="Q15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="R15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="S15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="T15" t="n">
-        <v>106.4715610795652</v>
+        <v>106.4715610795649</v>
       </c>
       <c r="U15" t="n">
-        <v>85.26035194476198</v>
+        <v>85.26035194476175</v>
       </c>
       <c r="V15" t="n">
-        <v>57.10385907808381</v>
+        <v>57.10385907808364</v>
       </c>
       <c r="W15" t="n">
-        <v>9.862117714946718</v>
+        <v>9.862117714946603</v>
       </c>
       <c r="X15" t="n">
-        <v>9.006232874478448</v>
+        <v>9.006232874478389</v>
       </c>
       <c r="Y15" t="n">
         <v>8.24154947458908</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.0799885366836</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="C16" t="n">
-        <v>127.0799885366836</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="D16" t="n">
-        <v>177.8288157998889</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="E16" t="n">
-        <v>177.8288157998889</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="F16" t="n">
-        <v>177.8288157998889</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="G16" t="n">
-        <v>177.8288157998889</v>
+        <v>45.01662959029274</v>
       </c>
       <c r="H16" t="n">
-        <v>221.9651596907318</v>
+        <v>89.15297348113563</v>
       </c>
       <c r="I16" t="n">
-        <v>221.9651596907318</v>
+        <v>144.4410720925198</v>
       </c>
       <c r="J16" t="n">
-        <v>221.9651596907318</v>
+        <v>144.4410720925198</v>
       </c>
       <c r="K16" t="n">
-        <v>221.9651596907318</v>
+        <v>243.9631440605639</v>
       </c>
       <c r="L16" t="n">
-        <v>221.9651596907318</v>
+        <v>243.9631440605639</v>
       </c>
       <c r="M16" t="n">
-        <v>320.1838414529662</v>
+        <v>243.9631440605639</v>
       </c>
       <c r="N16" t="n">
-        <v>320.1838414529662</v>
+        <v>293.2390346673591</v>
       </c>
       <c r="O16" t="n">
-        <v>320.1838414529662</v>
+        <v>293.2390346673591</v>
       </c>
       <c r="P16" t="n">
-        <v>412.077473729454</v>
+        <v>293.2390346673591</v>
       </c>
       <c r="Q16" t="n">
-        <v>412.077473729454</v>
+        <v>293.2390346673591</v>
       </c>
       <c r="R16" t="n">
-        <v>412.077473729454</v>
+        <v>293.2390346673591</v>
       </c>
       <c r="S16" t="n">
-        <v>396.5232341654639</v>
+        <v>277.6847951033691</v>
       </c>
       <c r="T16" t="n">
-        <v>374.1851677175485</v>
+        <v>255.3467286554537</v>
       </c>
       <c r="U16" t="n">
-        <v>291.9813153608204</v>
+        <v>173.1428762987256</v>
       </c>
       <c r="V16" t="n">
-        <v>244.292442519998</v>
+        <v>125.4540034579033</v>
       </c>
       <c r="W16" t="n">
-        <v>161.8708878481019</v>
+        <v>43.03244878600732</v>
       </c>
       <c r="X16" t="n">
-        <v>140.8769523151491</v>
+        <v>22.03851325305458</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.0799885366836</v>
+        <v>8.24154947458908</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>261.1752924896078</v>
+        <v>261.1752924896081</v>
       </c>
       <c r="C17" t="n">
-        <v>230.2306266320164</v>
+        <v>230.2306266320168</v>
       </c>
       <c r="D17" t="n">
-        <v>209.9827791080863</v>
+        <v>209.9827791080868</v>
       </c>
       <c r="E17" t="n">
-        <v>162.2123775926624</v>
+        <v>162.2123775926634</v>
       </c>
       <c r="F17" t="n">
         <v>89.24432388587513</v>
       </c>
       <c r="G17" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="H17" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="I17" t="n">
-        <v>110.2307242226289</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="J17" t="n">
-        <v>212.2198989706688</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="K17" t="n">
-        <v>314.2090737187086</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="L17" t="n">
-        <v>314.2090737187086</v>
+        <v>106.1099494853344</v>
       </c>
       <c r="M17" t="n">
-        <v>314.2090737187086</v>
+        <v>106.1099494853344</v>
       </c>
       <c r="N17" t="n">
-        <v>314.2090737187086</v>
+        <v>106.1099494853344</v>
       </c>
       <c r="O17" t="n">
-        <v>405.2609137686152</v>
+        <v>208.0991242333743</v>
       </c>
       <c r="P17" t="n">
-        <v>405.2609137686152</v>
+        <v>310.0882989814141</v>
       </c>
       <c r="Q17" t="n">
-        <v>405.2609137686152</v>
+        <v>310.0882989814141</v>
       </c>
       <c r="R17" t="n">
-        <v>405.2609137686152</v>
+        <v>310.0882989814141</v>
       </c>
       <c r="S17" t="n">
-        <v>405.2609137686152</v>
+        <v>310.0882989814141</v>
       </c>
       <c r="T17" t="n">
-        <v>405.2609137686152</v>
+        <v>412.077473729454</v>
       </c>
       <c r="U17" t="n">
-        <v>405.2609137686152</v>
+        <v>412.077473729454</v>
       </c>
       <c r="V17" t="n">
-        <v>412.0774737294539</v>
+        <v>412.077473729454</v>
       </c>
       <c r="W17" t="n">
-        <v>397.32666954216</v>
+        <v>397.3266695421603</v>
       </c>
       <c r="X17" t="n">
-        <v>361.8787623639005</v>
+        <v>361.8787623639008</v>
       </c>
       <c r="Y17" t="n">
-        <v>309.7572814709092</v>
+        <v>309.7572814709095</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="C18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="D18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="E18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="F18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="G18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="H18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="I18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="J18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="K18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="L18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="M18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="N18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="O18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="P18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="R18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="S18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="T18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="U18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="V18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="W18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="X18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="C19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="D19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="E19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="F19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="G19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="H19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="I19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="J19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="K19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="L19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="M19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="N19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="O19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="P19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="R19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="S19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="T19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="U19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="V19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="W19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="X19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.241549474589078</v>
+        <v>8.24154947458908</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>261.1752924896077</v>
+        <v>261.1752924896076</v>
       </c>
       <c r="C20" t="n">
-        <v>230.2306266320163</v>
+        <v>230.2306266320161</v>
       </c>
       <c r="D20" t="n">
-        <v>209.9827791080862</v>
+        <v>209.9827791080859</v>
       </c>
       <c r="E20" t="n">
-        <v>162.2123775926623</v>
+        <v>162.212377592662</v>
       </c>
       <c r="F20" t="n">
-        <v>89.24432388587515</v>
+        <v>89.2443238858752</v>
       </c>
       <c r="G20" t="n">
         <v>8.241549474589078</v>
@@ -5747,43 +5747,43 @@
         <v>8.241549474589078</v>
       </c>
       <c r="I20" t="n">
-        <v>8.241549474589078</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="J20" t="n">
-        <v>8.241549474589078</v>
+        <v>212.2198989706688</v>
       </c>
       <c r="K20" t="n">
-        <v>8.241549474589078</v>
+        <v>212.2198989706688</v>
       </c>
       <c r="L20" t="n">
-        <v>8.241549474589078</v>
+        <v>314.2090737187086</v>
       </c>
       <c r="M20" t="n">
-        <v>8.241549474589078</v>
+        <v>314.2090737187086</v>
       </c>
       <c r="N20" t="n">
-        <v>8.241549474589078</v>
+        <v>314.2090737187086</v>
       </c>
       <c r="O20" t="n">
-        <v>110.2307242226289</v>
+        <v>314.2090737187086</v>
       </c>
       <c r="P20" t="n">
-        <v>110.2307242226289</v>
+        <v>314.2090737187086</v>
       </c>
       <c r="Q20" t="n">
-        <v>110.2307242226289</v>
+        <v>314.2090737187086</v>
       </c>
       <c r="R20" t="n">
-        <v>212.2198989706688</v>
+        <v>314.2090737187086</v>
       </c>
       <c r="S20" t="n">
-        <v>303.2717390205754</v>
+        <v>322.7644066936444</v>
       </c>
       <c r="T20" t="n">
-        <v>405.2609137686152</v>
+        <v>322.7644066936444</v>
       </c>
       <c r="U20" t="n">
-        <v>405.2609137686152</v>
+        <v>405.2609137686153</v>
       </c>
       <c r="V20" t="n">
         <v>412.0774737294539</v>
@@ -5795,7 +5795,7 @@
         <v>361.8787623639005</v>
       </c>
       <c r="Y20" t="n">
-        <v>309.7572814709092</v>
+        <v>309.757281470909</v>
       </c>
     </row>
     <row r="21">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>261.1752924896081</v>
+        <v>261.1752924896074</v>
       </c>
       <c r="C23" t="n">
-        <v>230.2306266320168</v>
+        <v>230.230626632016</v>
       </c>
       <c r="D23" t="n">
-        <v>209.9827791080868</v>
+        <v>209.982779108086</v>
       </c>
       <c r="E23" t="n">
-        <v>162.212377592663</v>
+        <v>162.2123775926624</v>
       </c>
       <c r="F23" t="n">
-        <v>89.24432388587576</v>
+        <v>89.24432388587519</v>
       </c>
       <c r="G23" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="H23" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="I23" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="J23" t="n">
-        <v>110.2307242226289</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="K23" t="n">
-        <v>110.2307242226289</v>
+        <v>110.2307242226288</v>
       </c>
       <c r="L23" t="n">
-        <v>110.2307242226289</v>
+        <v>110.2307242226288</v>
       </c>
       <c r="M23" t="n">
-        <v>110.2307242226289</v>
+        <v>110.2307242226288</v>
       </c>
       <c r="N23" t="n">
-        <v>212.2198989706688</v>
+        <v>110.2307242226288</v>
       </c>
       <c r="O23" t="n">
-        <v>212.2198989706688</v>
+        <v>212.2198989706686</v>
       </c>
       <c r="P23" t="n">
-        <v>314.2090737187086</v>
+        <v>212.2198989706686</v>
       </c>
       <c r="Q23" t="n">
-        <v>314.2090737187086</v>
+        <v>212.2198989706686</v>
       </c>
       <c r="R23" t="n">
-        <v>314.2090737187086</v>
+        <v>212.2198989706686</v>
       </c>
       <c r="S23" t="n">
-        <v>314.2090737187086</v>
+        <v>314.2090737187083</v>
       </c>
       <c r="T23" t="n">
-        <v>412.0774737294539</v>
+        <v>405.260913768615</v>
       </c>
       <c r="U23" t="n">
-        <v>412.0774737294539</v>
+        <v>405.260913768615</v>
       </c>
       <c r="V23" t="n">
-        <v>412.0774737294539</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="W23" t="n">
-        <v>397.3266695421603</v>
+        <v>397.3266695421597</v>
       </c>
       <c r="X23" t="n">
-        <v>361.8787623639008</v>
+        <v>361.8787623639003</v>
       </c>
       <c r="Y23" t="n">
-        <v>309.7572814709095</v>
+        <v>309.7572814709089</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="C24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="D24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="E24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="F24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="G24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="H24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="I24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="J24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="K24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="L24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="M24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="N24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="O24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="P24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="R24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="S24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="T24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="U24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="V24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="W24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="X24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="C25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="D25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="E25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="F25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="G25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="H25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="I25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="J25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="K25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="L25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="M25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="N25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="O25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="P25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="R25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="S25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="T25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="U25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="V25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="W25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="X25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.241549474589078</v>
+        <v>8.241549474589071</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>983.3504094151972</v>
       </c>
       <c r="D26" t="n">
-        <v>819.2936393297426</v>
+        <v>819.2936393297424</v>
       </c>
       <c r="E26" t="n">
-        <v>627.7143152527941</v>
+        <v>627.7143152527939</v>
       </c>
       <c r="F26" t="n">
-        <v>410.9373389844823</v>
+        <v>410.937338984482</v>
       </c>
       <c r="G26" t="n">
         <v>186.1256420116717</v>
@@ -6224,28 +6224,28 @@
         <v>42.31671945014701</v>
       </c>
       <c r="J26" t="n">
-        <v>70.1734720314159</v>
+        <v>260.5176428751378</v>
       </c>
       <c r="K26" t="n">
-        <v>423.0124981239762</v>
+        <v>260.5176428751378</v>
       </c>
       <c r="L26" t="n">
-        <v>795.6970396351485</v>
+        <v>470.6074036609663</v>
       </c>
       <c r="M26" t="n">
-        <v>1285.122444652391</v>
+        <v>960.032808678209</v>
       </c>
       <c r="N26" t="n">
-        <v>1574.41112832883</v>
+        <v>1439.66566319837</v>
       </c>
       <c r="O26" t="n">
-        <v>1784.87700596483</v>
+        <v>1857.989296945832</v>
       </c>
       <c r="P26" t="n">
-        <v>1813.541269908304</v>
+        <v>2014.890111135353</v>
       </c>
       <c r="Q26" t="n">
-        <v>2044.489658151512</v>
+        <v>2109.548913825764</v>
       </c>
       <c r="R26" t="n">
         <v>2115.835972507351</v>
@@ -6282,52 +6282,52 @@
         <v>42.31671945014701</v>
       </c>
       <c r="C27" t="n">
-        <v>61.67947629543632</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="D27" t="n">
-        <v>106.0530322301658</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="E27" t="n">
-        <v>106.0530322301658</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="F27" t="n">
-        <v>106.0530322301658</v>
+        <v>79.6826595028989</v>
       </c>
       <c r="G27" t="n">
-        <v>106.0530322301658</v>
+        <v>79.6826595028989</v>
       </c>
       <c r="H27" t="n">
-        <v>106.0530322301658</v>
+        <v>79.6826595028989</v>
       </c>
       <c r="I27" t="n">
-        <v>127.7307681331694</v>
+        <v>79.6826595028989</v>
       </c>
       <c r="J27" t="n">
-        <v>127.7307681331694</v>
+        <v>79.6826595028989</v>
       </c>
       <c r="K27" t="n">
-        <v>127.7307681331694</v>
+        <v>79.6826595028989</v>
       </c>
       <c r="L27" t="n">
-        <v>127.7307681331694</v>
+        <v>79.6826595028989</v>
       </c>
       <c r="M27" t="n">
-        <v>127.7307681331694</v>
+        <v>79.6826595028989</v>
       </c>
       <c r="N27" t="n">
-        <v>127.7307681331694</v>
+        <v>79.6826595028989</v>
       </c>
       <c r="O27" t="n">
-        <v>127.7307681331694</v>
+        <v>79.6826595028989</v>
       </c>
       <c r="P27" t="n">
-        <v>127.7307681331694</v>
+        <v>79.6826595028989</v>
       </c>
       <c r="Q27" t="n">
-        <v>211.4289334685719</v>
+        <v>79.6826595028989</v>
       </c>
       <c r="R27" t="n">
-        <v>211.4289334685719</v>
+        <v>186.4040173628245</v>
       </c>
       <c r="S27" t="n">
         <v>211.4289334685719</v>
@@ -6367,37 +6367,37 @@
         <v>42.31671945014701</v>
       </c>
       <c r="E28" t="n">
-        <v>87.69126727376542</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="F28" t="n">
-        <v>134.0686005747854</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="G28" t="n">
-        <v>158.3114489149111</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="H28" t="n">
-        <v>189.9155610301761</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I28" t="n">
-        <v>189.9155610301761</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J28" t="n">
-        <v>189.9155610301761</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="K28" t="n">
-        <v>192.2375590601264</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="L28" t="n">
-        <v>192.2375590601264</v>
+        <v>64.13059403001699</v>
       </c>
       <c r="M28" t="n">
-        <v>192.2375590601264</v>
+        <v>149.8170440166736</v>
       </c>
       <c r="N28" t="n">
-        <v>394.1472852112107</v>
+        <v>149.8170440166736</v>
       </c>
       <c r="O28" t="n">
-        <v>394.1472852112107</v>
+        <v>203.8031143674888</v>
       </c>
       <c r="P28" t="n">
         <v>416.8210125492994</v>
@@ -6440,16 +6440,16 @@
         <v>1158.103997834314</v>
       </c>
       <c r="C29" t="n">
-        <v>983.3504094151983</v>
+        <v>983.3504094151978</v>
       </c>
       <c r="D29" t="n">
-        <v>819.2936393297437</v>
+        <v>819.293639329743</v>
       </c>
       <c r="E29" t="n">
-        <v>627.7143152527951</v>
+        <v>627.7143152527944</v>
       </c>
       <c r="F29" t="n">
-        <v>410.9373389844833</v>
+        <v>410.9373389844827</v>
       </c>
       <c r="G29" t="n">
         <v>186.1256420116716</v>
@@ -6461,43 +6461,43 @@
         <v>42.31671945014702</v>
       </c>
       <c r="J29" t="n">
-        <v>70.17347203141586</v>
+        <v>260.5176428751379</v>
       </c>
       <c r="K29" t="n">
-        <v>102.1085396785231</v>
+        <v>613.3566689676983</v>
       </c>
       <c r="L29" t="n">
-        <v>546.3185747786463</v>
+        <v>975.9674457913826</v>
       </c>
       <c r="M29" t="n">
-        <v>1035.743979795889</v>
+        <v>1020.374452650721</v>
       </c>
       <c r="N29" t="n">
-        <v>1515.37683431605</v>
+        <v>1500.007307170882</v>
       </c>
       <c r="O29" t="n">
-        <v>1743.35629721979</v>
+        <v>1918.330940918344</v>
       </c>
       <c r="P29" t="n">
-        <v>2003.885440752026</v>
+        <v>2075.231755107865</v>
       </c>
       <c r="Q29" t="n">
-        <v>2044.489658151512</v>
+        <v>2115.835972507351</v>
       </c>
       <c r="R29" t="n">
         <v>2115.835972507351</v>
       </c>
       <c r="S29" t="n">
-        <v>2109.785187015935</v>
+        <v>2109.785187015934</v>
       </c>
       <c r="T29" t="n">
-        <v>2080.73323037453</v>
+        <v>2080.733230374529</v>
       </c>
       <c r="U29" t="n">
         <v>2021.095828142533</v>
       </c>
       <c r="V29" t="n">
-        <v>1884.241869320259</v>
+        <v>1884.241869320258</v>
       </c>
       <c r="W29" t="n">
         <v>1725.68214257144</v>
@@ -6528,61 +6528,61 @@
         <v>42.31671945014702</v>
       </c>
       <c r="F30" t="n">
-        <v>89.04237002441894</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="G30" t="n">
-        <v>89.04237002441894</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="H30" t="n">
-        <v>89.04237002441894</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="I30" t="n">
-        <v>89.04237002441894</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="J30" t="n">
-        <v>89.04237002441894</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="K30" t="n">
-        <v>89.04237002441894</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="L30" t="n">
-        <v>89.04237002441894</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="M30" t="n">
-        <v>89.04237002441894</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="N30" t="n">
-        <v>186.4040173628239</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="O30" t="n">
-        <v>186.4040173628239</v>
+        <v>211.4289334685716</v>
       </c>
       <c r="P30" t="n">
-        <v>186.4040173628239</v>
+        <v>211.4289334685716</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.4040173628239</v>
+        <v>211.4289334685716</v>
       </c>
       <c r="R30" t="n">
-        <v>186.4040173628239</v>
+        <v>211.4289334685716</v>
       </c>
       <c r="S30" t="n">
-        <v>211.4289334685714</v>
+        <v>211.4289334685716</v>
       </c>
       <c r="T30" t="n">
-        <v>204.480165273967</v>
+        <v>204.4801652739671</v>
       </c>
       <c r="U30" t="n">
-        <v>170.482269295395</v>
+        <v>170.4822692953951</v>
       </c>
       <c r="V30" t="n">
-        <v>129.5390895849481</v>
+        <v>129.5390895849482</v>
       </c>
       <c r="W30" t="n">
-        <v>69.5106613780422</v>
+        <v>69.51066137804226</v>
       </c>
       <c r="X30" t="n">
-        <v>55.86808969380516</v>
+        <v>55.86808969380519</v>
       </c>
       <c r="Y30" t="n">
         <v>42.31671945014702</v>
@@ -6607,61 +6607,61 @@
         <v>42.31671945014702</v>
       </c>
       <c r="F31" t="n">
-        <v>51.50749585105356</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="G31" t="n">
-        <v>51.50749585105356</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="H31" t="n">
-        <v>83.11160796631862</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="I31" t="n">
-        <v>83.11160796631862</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="J31" t="n">
-        <v>195.859307726891</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="K31" t="n">
-        <v>198.1813057568413</v>
+        <v>42.31671945014702</v>
       </c>
       <c r="L31" t="n">
-        <v>198.1813057568413</v>
+        <v>130.3087284130871</v>
       </c>
       <c r="M31" t="n">
-        <v>198.1813057568413</v>
+        <v>130.3087284130871</v>
       </c>
       <c r="N31" t="n">
-        <v>294.2138083299189</v>
+        <v>130.3087284130871</v>
       </c>
       <c r="O31" t="n">
-        <v>294.2138083299189</v>
+        <v>336.2296097858043</v>
       </c>
       <c r="P31" t="n">
-        <v>294.2138083299189</v>
+        <v>358.903337123893</v>
       </c>
       <c r="Q31" t="n">
-        <v>416.8210125492989</v>
+        <v>416.821012549299</v>
       </c>
       <c r="R31" t="n">
-        <v>416.8210125492989</v>
+        <v>416.821012549299</v>
       </c>
       <c r="S31" t="n">
-        <v>388.48008614154</v>
+        <v>388.4800861415401</v>
       </c>
       <c r="T31" t="n">
-        <v>353.3553328498558</v>
+        <v>353.3553328498559</v>
       </c>
       <c r="U31" t="n">
-        <v>258.3647936493589</v>
+        <v>258.364793649359</v>
       </c>
       <c r="V31" t="n">
-        <v>197.8892339647678</v>
+        <v>197.8892339647679</v>
       </c>
       <c r="W31" t="n">
-        <v>102.6809924491029</v>
+        <v>102.680992449103</v>
       </c>
       <c r="X31" t="n">
-        <v>68.90037007238135</v>
+        <v>68.90037007238138</v>
       </c>
       <c r="Y31" t="n">
         <v>42.31671945014702</v>
@@ -6698,37 +6698,37 @@
         <v>42.31671945014701</v>
       </c>
       <c r="J32" t="n">
-        <v>70.1734720314159</v>
+        <v>260.5176428751379</v>
       </c>
       <c r="K32" t="n">
         <v>423.0124981239763</v>
       </c>
       <c r="L32" t="n">
-        <v>676.8783623803777</v>
+        <v>487.6627957745162</v>
       </c>
       <c r="M32" t="n">
-        <v>996.8055298187627</v>
+        <v>977.0882007917589</v>
       </c>
       <c r="N32" t="n">
-        <v>1476.438384338924</v>
+        <v>1266.376884468198</v>
       </c>
       <c r="O32" t="n">
-        <v>1704.417847242664</v>
+        <v>1684.70051821566</v>
       </c>
       <c r="P32" t="n">
-        <v>2051.662832275907</v>
+        <v>2031.945503248903</v>
       </c>
       <c r="Q32" t="n">
-        <v>2051.662832275907</v>
+        <v>2072.549720648389</v>
       </c>
       <c r="R32" t="n">
         <v>2115.835972507351</v>
       </c>
       <c r="S32" t="n">
-        <v>2109.785187015933</v>
+        <v>2109.785187015934</v>
       </c>
       <c r="T32" t="n">
-        <v>2080.733230374528</v>
+        <v>2080.733230374529</v>
       </c>
       <c r="U32" t="n">
         <v>2021.095828142532</v>
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>67.79303848050034</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="C33" t="n">
-        <v>67.79303848050034</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="D33" t="n">
-        <v>67.79303848050034</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="E33" t="n">
-        <v>67.79303848050034</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="F33" t="n">
-        <v>67.79303848050034</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="G33" t="n">
-        <v>67.79303848050034</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="H33" t="n">
-        <v>67.79303848050034</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I33" t="n">
-        <v>168.223893629624</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J33" t="n">
-        <v>168.223893629624</v>
+        <v>130.7286766234048</v>
       </c>
       <c r="K33" t="n">
-        <v>168.223893629624</v>
+        <v>130.7286766234048</v>
       </c>
       <c r="L33" t="n">
-        <v>168.223893629624</v>
+        <v>130.7286766234048</v>
       </c>
       <c r="M33" t="n">
-        <v>211.4289334685712</v>
+        <v>130.7286766234048</v>
       </c>
       <c r="N33" t="n">
-        <v>211.4289334685712</v>
+        <v>130.7286766234048</v>
       </c>
       <c r="O33" t="n">
         <v>211.4289334685712</v>
@@ -6844,40 +6844,40 @@
         <v>42.31671945014701</v>
       </c>
       <c r="F34" t="n">
-        <v>88.69405275116708</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="G34" t="n">
-        <v>88.69405275116708</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="H34" t="n">
-        <v>88.69405275116708</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I34" t="n">
-        <v>131.4499195869735</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J34" t="n">
-        <v>210.8977404380498</v>
+        <v>121.7645403012233</v>
       </c>
       <c r="K34" t="n">
-        <v>262.5817897086359</v>
+        <v>131.736270924202</v>
       </c>
       <c r="L34" t="n">
-        <v>262.5817897086359</v>
+        <v>131.736270924202</v>
       </c>
       <c r="M34" t="n">
-        <v>334.6486331519218</v>
+        <v>203.8031143674879</v>
       </c>
       <c r="N34" t="n">
-        <v>334.6486331519218</v>
+        <v>203.8031143674879</v>
       </c>
       <c r="O34" t="n">
-        <v>334.6486331519218</v>
+        <v>203.8031143674879</v>
       </c>
       <c r="P34" t="n">
-        <v>334.6486331519218</v>
+        <v>416.8210125492986</v>
       </c>
       <c r="Q34" t="n">
-        <v>392.5663085773279</v>
+        <v>416.8210125492986</v>
       </c>
       <c r="R34" t="n">
         <v>416.8210125492986</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>965.4958572986977</v>
+        <v>965.4958572986993</v>
       </c>
       <c r="C35" t="n">
-        <v>821.4700340564194</v>
+        <v>821.470034056421</v>
       </c>
       <c r="D35" t="n">
-        <v>688.1410291478024</v>
+        <v>688.1410291478036</v>
       </c>
       <c r="E35" t="n">
-        <v>527.2894702476917</v>
+        <v>527.2894702476924</v>
       </c>
       <c r="F35" t="n">
-        <v>341.2402591562177</v>
+        <v>341.240259156218</v>
       </c>
       <c r="G35" t="n">
-        <v>147.1563273602445</v>
+        <v>147.1563273602451</v>
       </c>
       <c r="H35" t="n">
-        <v>34.07516997555772</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="I35" t="n">
-        <v>64.19145262537643</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="J35" t="n">
-        <v>92.04820520664532</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="K35" t="n">
-        <v>410.9736754549634</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="L35" t="n">
-        <v>471.8153907999594</v>
+        <v>455.7553984230859</v>
       </c>
       <c r="M35" t="n">
-        <v>893.4956192474862</v>
+        <v>530.2786879322427</v>
       </c>
       <c r="N35" t="n">
-        <v>1315.175847695013</v>
+        <v>931.7808644854646</v>
       </c>
       <c r="O35" t="n">
-        <v>1386.623584642176</v>
+        <v>1353.461092932993</v>
       </c>
       <c r="P35" t="n">
-        <v>1590.653959571501</v>
+        <v>1627.057300902913</v>
       </c>
       <c r="Q35" t="n">
-        <v>1641.526789711222</v>
+        <v>1677.930131042633</v>
       </c>
       <c r="R35" t="n">
-        <v>1677.930131042627</v>
+        <v>1677.930131042633</v>
       </c>
       <c r="S35" t="n">
-        <v>1702.116038832309</v>
+        <v>1702.116038832314</v>
       </c>
       <c r="T35" t="n">
-        <v>1703.758498777886</v>
+        <v>1703.758498777891</v>
       </c>
       <c r="U35" t="n">
-        <v>1674.848861722728</v>
+        <v>1674.848861722732</v>
       </c>
       <c r="V35" t="n">
-        <v>1568.722668077291</v>
+        <v>1568.722668077294</v>
       </c>
       <c r="W35" t="n">
-        <v>1440.89070650531</v>
+        <v>1440.890706505314</v>
       </c>
       <c r="X35" t="n">
-        <v>1292.361641942364</v>
+        <v>1292.361641942367</v>
       </c>
       <c r="Y35" t="n">
-        <v>1127.159003664686</v>
+        <v>1127.159003664688</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34.07516997555772</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="C36" t="n">
-        <v>34.07516997555772</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="D36" t="n">
-        <v>34.07516997555772</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="E36" t="n">
-        <v>34.07516997555772</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="F36" t="n">
-        <v>34.07516997555772</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="G36" t="n">
-        <v>34.07516997555772</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="H36" t="n">
-        <v>34.07516997555772</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="I36" t="n">
-        <v>34.07516997555772</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="J36" t="n">
-        <v>34.07516997555772</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="K36" t="n">
-        <v>34.07516997555772</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="L36" t="n">
-        <v>34.07516997555772</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="M36" t="n">
-        <v>34.07516997555772</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="N36" t="n">
-        <v>76.86137834096922</v>
+        <v>53.55558339868426</v>
       </c>
       <c r="O36" t="n">
-        <v>76.86137834096922</v>
+        <v>53.55558339868426</v>
       </c>
       <c r="P36" t="n">
-        <v>76.86137834096922</v>
+        <v>53.55558339868426</v>
       </c>
       <c r="Q36" t="n">
-        <v>76.86137834096922</v>
+        <v>53.55558339868426</v>
       </c>
       <c r="R36" t="n">
-        <v>76.86137834096922</v>
+        <v>53.55558339868426</v>
       </c>
       <c r="S36" t="n">
-        <v>76.86137834096922</v>
+        <v>53.55558339868426</v>
       </c>
       <c r="T36" t="n">
-        <v>76.86137834096922</v>
+        <v>76.8613783409707</v>
       </c>
       <c r="U36" t="n">
-        <v>73.59124753923501</v>
+        <v>73.59124753923604</v>
       </c>
       <c r="V36" t="n">
-        <v>63.37583300562584</v>
+        <v>63.3758330056264</v>
       </c>
       <c r="W36" t="n">
-        <v>34.07516997555772</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="X36" t="n">
-        <v>34.07516997555772</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="Y36" t="n">
-        <v>34.07516997555772</v>
+        <v>34.07516997555783</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>38.13681665052454</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="C37" t="n">
-        <v>38.13681665052454</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="D37" t="n">
-        <v>38.13681665052454</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="E37" t="n">
-        <v>38.13681665052454</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="F37" t="n">
-        <v>38.13681665052454</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="G37" t="n">
-        <v>38.13681665052454</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="H37" t="n">
-        <v>38.13681665052454</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="I37" t="n">
-        <v>38.13681665052454</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="J37" t="n">
-        <v>38.13681665052454</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="K37" t="n">
-        <v>38.13681665052454</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="L37" t="n">
-        <v>38.13681665052454</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="M37" t="n">
-        <v>143.3057328611639</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="N37" t="n">
-        <v>143.3057328611639</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="O37" t="n">
-        <v>143.3057328611639</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="P37" t="n">
-        <v>143.3057328611639</v>
+        <v>109.6427614077319</v>
       </c>
       <c r="Q37" t="n">
-        <v>143.3057328611639</v>
+        <v>197.6767194829562</v>
       </c>
       <c r="R37" t="n">
-        <v>197.6767194829533</v>
+        <v>197.6767194829562</v>
       </c>
       <c r="S37" t="n">
-        <v>200.0160601605276</v>
+        <v>200.01606016053</v>
       </c>
       <c r="T37" t="n">
-        <v>195.6190720456812</v>
+        <v>195.6190720456831</v>
       </c>
       <c r="U37" t="n">
-        <v>131.356298022022</v>
+        <v>131.3562980220235</v>
       </c>
       <c r="V37" t="n">
-        <v>101.6085035142686</v>
+        <v>101.6085035142697</v>
       </c>
       <c r="W37" t="n">
-        <v>37.12802717544153</v>
+        <v>37.1280271754421</v>
       </c>
       <c r="X37" t="n">
-        <v>34.07516997555772</v>
+        <v>34.07516997555783</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.13681665052454</v>
+        <v>34.07516997555783</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>965.495857298698</v>
+        <v>965.4958572987007</v>
       </c>
       <c r="C38" t="n">
-        <v>821.4700340564198</v>
+        <v>821.4700340564222</v>
       </c>
       <c r="D38" t="n">
-        <v>688.1410291478028</v>
+        <v>688.1410291478047</v>
       </c>
       <c r="E38" t="n">
-        <v>527.2894702476921</v>
+        <v>527.2894702476935</v>
       </c>
       <c r="F38" t="n">
-        <v>341.240259156218</v>
+        <v>341.2402591562191</v>
       </c>
       <c r="G38" t="n">
-        <v>147.1563273602446</v>
+        <v>147.1563273602451</v>
       </c>
       <c r="H38" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="I38" t="n">
-        <v>34.07516997555773</v>
+        <v>64.19145262537612</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3923760503673</v>
+        <v>145.1030096798322</v>
       </c>
       <c r="K38" t="n">
-        <v>344.4437263472933</v>
+        <v>528.0583184222107</v>
       </c>
       <c r="L38" t="n">
-        <v>405.2854416922893</v>
+        <v>949.7385468697391</v>
       </c>
       <c r="M38" t="n">
-        <v>826.9656701398162</v>
+        <v>949.7385468697391</v>
       </c>
       <c r="N38" t="n">
-        <v>1248.645898587343</v>
+        <v>1371.418775317268</v>
       </c>
       <c r="O38" t="n">
-        <v>1441.051367939283</v>
+        <v>1371.418775317268</v>
       </c>
       <c r="P38" t="n">
-        <v>1441.051367939283</v>
+        <v>1525.594703897257</v>
       </c>
       <c r="Q38" t="n">
-        <v>1702.116038832309</v>
+        <v>1576.467534036977</v>
       </c>
       <c r="R38" t="n">
-        <v>1702.116038832309</v>
+        <v>1677.930131042634</v>
       </c>
       <c r="S38" t="n">
-        <v>1702.116038832309</v>
+        <v>1702.116038832315</v>
       </c>
       <c r="T38" t="n">
-        <v>1703.758498777887</v>
+        <v>1703.758498777892</v>
       </c>
       <c r="U38" t="n">
-        <v>1674.848861722729</v>
+        <v>1674.848861722734</v>
       </c>
       <c r="V38" t="n">
-        <v>1568.722668077291</v>
+        <v>1568.722668077296</v>
       </c>
       <c r="W38" t="n">
-        <v>1440.890706505311</v>
+        <v>1440.890706505315</v>
       </c>
       <c r="X38" t="n">
-        <v>1292.361641942364</v>
+        <v>1292.361641942368</v>
       </c>
       <c r="Y38" t="n">
-        <v>1127.159003664686</v>
+        <v>1127.159003664689</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="C39" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="D39" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="E39" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="F39" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="G39" t="n">
-        <v>76.86137834096924</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="H39" t="n">
-        <v>76.86137834096924</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="I39" t="n">
-        <v>76.86137834096924</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="J39" t="n">
-        <v>76.86137834096924</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="K39" t="n">
-        <v>76.86137834096924</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="L39" t="n">
-        <v>76.86137834096924</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="M39" t="n">
-        <v>76.86137834096924</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="N39" t="n">
-        <v>76.86137834096924</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="O39" t="n">
-        <v>76.86137834096924</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="P39" t="n">
-        <v>76.86137834096924</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.86137834096924</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="R39" t="n">
-        <v>76.86137834096924</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="S39" t="n">
-        <v>76.86137834096924</v>
+        <v>76.86137834097073</v>
       </c>
       <c r="T39" t="n">
-        <v>76.86137834096924</v>
+        <v>76.86137834097073</v>
       </c>
       <c r="U39" t="n">
-        <v>73.59124753923503</v>
+        <v>73.59124753923606</v>
       </c>
       <c r="V39" t="n">
-        <v>63.37583300562585</v>
+        <v>63.37583300562642</v>
       </c>
       <c r="W39" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="X39" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="Y39" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="C40" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="D40" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="E40" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="F40" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="G40" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="H40" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="I40" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="J40" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="K40" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="L40" t="n">
-        <v>86.98078601839535</v>
+        <v>111.9821020853057</v>
       </c>
       <c r="M40" t="n">
-        <v>86.98078601839535</v>
+        <v>111.9821020853057</v>
       </c>
       <c r="N40" t="n">
-        <v>86.98078601839535</v>
+        <v>111.9821020853057</v>
       </c>
       <c r="O40" t="n">
-        <v>200.0160601605276</v>
+        <v>111.9821020853057</v>
       </c>
       <c r="P40" t="n">
-        <v>200.0160601605276</v>
+        <v>111.9821020853057</v>
       </c>
       <c r="Q40" t="n">
-        <v>200.0160601605276</v>
+        <v>200.01606016053</v>
       </c>
       <c r="R40" t="n">
-        <v>200.0160601605276</v>
+        <v>200.01606016053</v>
       </c>
       <c r="S40" t="n">
-        <v>200.0160601605276</v>
+        <v>200.01606016053</v>
       </c>
       <c r="T40" t="n">
-        <v>195.6190720456812</v>
+        <v>195.6190720456831</v>
       </c>
       <c r="U40" t="n">
-        <v>131.356298022022</v>
+        <v>131.3562980220235</v>
       </c>
       <c r="V40" t="n">
-        <v>101.6085035142686</v>
+        <v>101.6085035142697</v>
       </c>
       <c r="W40" t="n">
-        <v>37.12802717544155</v>
+        <v>37.12802717544212</v>
       </c>
       <c r="X40" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>965.4958572986975</v>
+        <v>965.4958572987002</v>
       </c>
       <c r="C41" t="n">
-        <v>821.4700340564192</v>
+        <v>821.4700340564215</v>
       </c>
       <c r="D41" t="n">
-        <v>688.1410291478023</v>
+        <v>688.1410291478041</v>
       </c>
       <c r="E41" t="n">
-        <v>527.2894702476917</v>
+        <v>527.2894702476931</v>
       </c>
       <c r="F41" t="n">
-        <v>341.2402591562177</v>
+        <v>341.2402591562185</v>
       </c>
       <c r="G41" t="n">
-        <v>147.1563273602447</v>
+        <v>147.1563273602452</v>
       </c>
       <c r="H41" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="I41" t="n">
-        <v>34.07516997555773</v>
+        <v>64.19145262537603</v>
       </c>
       <c r="J41" t="n">
-        <v>34.07516997555773</v>
+        <v>312.508658700185</v>
       </c>
       <c r="K41" t="n">
-        <v>417.0304787179368</v>
+        <v>312.508658700185</v>
       </c>
       <c r="L41" t="n">
-        <v>417.0304787179368</v>
+        <v>734.1888871477133</v>
       </c>
       <c r="M41" t="n">
-        <v>417.0304787179368</v>
+        <v>734.1888871477133</v>
       </c>
       <c r="N41" t="n">
-        <v>838.7107071654638</v>
+        <v>810.9645691498281</v>
       </c>
       <c r="O41" t="n">
-        <v>1004.743311080713</v>
+        <v>1027.286758924824</v>
       </c>
       <c r="P41" t="n">
-        <v>1382.104578763774</v>
+        <v>1404.648026607885</v>
       </c>
       <c r="Q41" t="n">
-        <v>1643.169249656801</v>
+        <v>1665.712697500911</v>
       </c>
       <c r="R41" t="n">
-        <v>1679.572590988206</v>
+        <v>1702.116038832315</v>
       </c>
       <c r="S41" t="n">
-        <v>1703.758498777887</v>
+        <v>1702.116038832315</v>
       </c>
       <c r="T41" t="n">
-        <v>1703.758498777887</v>
+        <v>1703.758498777892</v>
       </c>
       <c r="U41" t="n">
-        <v>1674.848861722729</v>
+        <v>1674.848861722734</v>
       </c>
       <c r="V41" t="n">
-        <v>1568.722668077291</v>
+        <v>1568.722668077296</v>
       </c>
       <c r="W41" t="n">
-        <v>1440.89070650531</v>
+        <v>1440.890706505314</v>
       </c>
       <c r="X41" t="n">
-        <v>1292.361641942364</v>
+        <v>1292.361641942368</v>
       </c>
       <c r="Y41" t="n">
-        <v>1127.159003664686</v>
+        <v>1127.159003664689</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="C42" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="D42" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="E42" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="F42" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="G42" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="H42" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="I42" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="J42" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="K42" t="n">
-        <v>76.86137834096951</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="L42" t="n">
-        <v>76.86137834096951</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="M42" t="n">
-        <v>76.86137834096951</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="N42" t="n">
-        <v>76.86137834096951</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="O42" t="n">
-        <v>76.86137834096951</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="P42" t="n">
-        <v>76.86137834096951</v>
+        <v>76.86137834097099</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.86137834096951</v>
+        <v>76.86137834097099</v>
       </c>
       <c r="R42" t="n">
-        <v>76.86137834096951</v>
+        <v>76.86137834097099</v>
       </c>
       <c r="S42" t="n">
-        <v>76.86137834096951</v>
+        <v>76.86137834097099</v>
       </c>
       <c r="T42" t="n">
-        <v>76.86137834096951</v>
+        <v>76.86137834097099</v>
       </c>
       <c r="U42" t="n">
-        <v>73.59124753923521</v>
+        <v>73.59124753923624</v>
       </c>
       <c r="V42" t="n">
-        <v>63.37583300562594</v>
+        <v>63.3758330056265</v>
       </c>
       <c r="W42" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="X42" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="Y42" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="C43" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="D43" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="E43" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="F43" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="G43" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="H43" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="I43" t="n">
-        <v>90.45195665963313</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="J43" t="n">
-        <v>200.016060160528</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="K43" t="n">
-        <v>200.016060160528</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="L43" t="n">
-        <v>200.016060160528</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="M43" t="n">
-        <v>200.016060160528</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="N43" t="n">
-        <v>200.016060160528</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="O43" t="n">
-        <v>200.016060160528</v>
+        <v>147.1104441176896</v>
       </c>
       <c r="P43" t="n">
-        <v>200.016060160528</v>
+        <v>200.0160601605304</v>
       </c>
       <c r="Q43" t="n">
-        <v>200.016060160528</v>
+        <v>200.0160601605304</v>
       </c>
       <c r="R43" t="n">
-        <v>200.016060160528</v>
+        <v>200.0160601605304</v>
       </c>
       <c r="S43" t="n">
-        <v>200.016060160528</v>
+        <v>200.0160601605304</v>
       </c>
       <c r="T43" t="n">
-        <v>195.6190720456815</v>
+        <v>195.6190720456834</v>
       </c>
       <c r="U43" t="n">
-        <v>131.3562980220223</v>
+        <v>131.3562980220237</v>
       </c>
       <c r="V43" t="n">
-        <v>101.6085035142688</v>
+        <v>101.6085035142698</v>
       </c>
       <c r="W43" t="n">
-        <v>37.12802717544163</v>
+        <v>37.12802717544221</v>
       </c>
       <c r="X43" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>965.4958572986978</v>
+        <v>965.4958572987006</v>
       </c>
       <c r="C44" t="n">
-        <v>821.4700340564195</v>
+        <v>821.4700340564218</v>
       </c>
       <c r="D44" t="n">
-        <v>688.1410291478026</v>
+        <v>688.1410291478044</v>
       </c>
       <c r="E44" t="n">
-        <v>527.2894702476918</v>
+        <v>527.2894702476932</v>
       </c>
       <c r="F44" t="n">
-        <v>341.2402591562177</v>
+        <v>341.2402591562186</v>
       </c>
       <c r="G44" t="n">
-        <v>147.1563273602447</v>
+        <v>147.1563273602452</v>
       </c>
       <c r="H44" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="I44" t="n">
-        <v>64.19145262537636</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="J44" t="n">
-        <v>312.5086587001858</v>
+        <v>282.3923760503669</v>
       </c>
       <c r="K44" t="n">
-        <v>695.4639674425648</v>
+        <v>665.3476847927454</v>
       </c>
       <c r="L44" t="n">
-        <v>949.3298316989661</v>
+        <v>726.1894001377409</v>
       </c>
       <c r="M44" t="n">
-        <v>949.3298316989661</v>
+        <v>800.7126896468977</v>
       </c>
       <c r="N44" t="n">
-        <v>1026.105513701081</v>
+        <v>1090.001373323337</v>
       </c>
       <c r="O44" t="n">
-        <v>1097.553250648245</v>
+        <v>1249.696033219853</v>
       </c>
       <c r="P44" t="n">
-        <v>1382.104578763774</v>
+        <v>1627.057300902914</v>
       </c>
       <c r="Q44" t="n">
-        <v>1643.169249656801</v>
+        <v>1677.930131042634</v>
       </c>
       <c r="R44" t="n">
-        <v>1679.572590988206</v>
+        <v>1677.930131042634</v>
       </c>
       <c r="S44" t="n">
-        <v>1703.758498777887</v>
+        <v>1702.116038832315</v>
       </c>
       <c r="T44" t="n">
-        <v>1703.758498777887</v>
+        <v>1703.758498777892</v>
       </c>
       <c r="U44" t="n">
-        <v>1674.848861722729</v>
+        <v>1674.848861722734</v>
       </c>
       <c r="V44" t="n">
-        <v>1568.722668077291</v>
+        <v>1568.722668077296</v>
       </c>
       <c r="W44" t="n">
-        <v>1440.890706505311</v>
+        <v>1440.890706505315</v>
       </c>
       <c r="X44" t="n">
-        <v>1292.361641942364</v>
+        <v>1292.361641942368</v>
       </c>
       <c r="Y44" t="n">
-        <v>1127.159003664686</v>
+        <v>1127.159003664689</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="C45" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="D45" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="E45" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="F45" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="G45" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="H45" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="I45" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="J45" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="K45" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="L45" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="M45" t="n">
-        <v>34.07516997555773</v>
+        <v>76.86137834097099</v>
       </c>
       <c r="N45" t="n">
-        <v>34.07516997555773</v>
+        <v>76.86137834097099</v>
       </c>
       <c r="O45" t="n">
-        <v>76.86137834096951</v>
+        <v>76.86137834097099</v>
       </c>
       <c r="P45" t="n">
-        <v>76.86137834096951</v>
+        <v>76.86137834097099</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.86137834096951</v>
+        <v>76.86137834097099</v>
       </c>
       <c r="R45" t="n">
-        <v>76.86137834096951</v>
+        <v>76.86137834097099</v>
       </c>
       <c r="S45" t="n">
-        <v>76.86137834096951</v>
+        <v>76.86137834097099</v>
       </c>
       <c r="T45" t="n">
-        <v>76.86137834096951</v>
+        <v>76.86137834097099</v>
       </c>
       <c r="U45" t="n">
-        <v>73.59124753923521</v>
+        <v>73.59124753923624</v>
       </c>
       <c r="V45" t="n">
-        <v>63.37583300562594</v>
+        <v>63.3758330056265</v>
       </c>
       <c r="W45" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="X45" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="Y45" t="n">
-        <v>34.07516997555773</v>
+        <v>34.07516997555785</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1537.817608592916</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="C46" t="n">
-        <v>1537.817608592916</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="D46" t="n">
-        <v>1537.817608592916</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="E46" t="n">
-        <v>1537.817608592916</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="F46" t="n">
-        <v>1537.817608592916</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="G46" t="n">
-        <v>1537.817608592916</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="H46" t="n">
-        <v>1586.652375935602</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="I46" t="n">
-        <v>1586.652375935602</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="J46" t="n">
-        <v>1586.652375935602</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="K46" t="n">
-        <v>1703.758498777887</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="L46" t="n">
-        <v>1703.758498777887</v>
+        <v>91.65900318792634</v>
       </c>
       <c r="M46" t="n">
-        <v>1703.758498777887</v>
+        <v>91.65900318792634</v>
       </c>
       <c r="N46" t="n">
-        <v>1703.758498777887</v>
+        <v>91.65900318792634</v>
       </c>
       <c r="O46" t="n">
-        <v>1703.758498777887</v>
+        <v>145.6450735387416</v>
       </c>
       <c r="P46" t="n">
-        <v>1703.758498777887</v>
+        <v>145.6450735387416</v>
       </c>
       <c r="Q46" t="n">
-        <v>1703.758498777887</v>
+        <v>145.6450735387416</v>
       </c>
       <c r="R46" t="n">
-        <v>1703.758498777887</v>
+        <v>200.0160601605304</v>
       </c>
       <c r="S46" t="n">
-        <v>1703.758498777887</v>
+        <v>200.0160601605304</v>
       </c>
       <c r="T46" t="n">
-        <v>1699.36151066304</v>
+        <v>195.6190720456834</v>
       </c>
       <c r="U46" t="n">
-        <v>1635.098736639381</v>
+        <v>131.3562980220237</v>
       </c>
       <c r="V46" t="n">
-        <v>1605.350942131628</v>
+        <v>101.6085035142698</v>
       </c>
       <c r="W46" t="n">
-        <v>1540.8704657928</v>
+        <v>37.12802717544221</v>
       </c>
       <c r="X46" t="n">
-        <v>1537.817608592916</v>
+        <v>34.07516997555785</v>
       </c>
       <c r="Y46" t="n">
-        <v>1537.817608592916</v>
+        <v>34.07516997555785</v>
       </c>
     </row>
   </sheetData>
@@ -8690,28 +8690,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>160.0091951480956</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>264.250417067257</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>81.5289603491115</v>
       </c>
       <c r="O11" t="n">
-        <v>46.99733698284372</v>
+        <v>150.5178955013914</v>
       </c>
       <c r="P11" t="n">
-        <v>40.99763681341395</v>
+        <v>163.313037272977</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>104.3983137891472</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8930,19 +8930,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>59.32475785584319</v>
+        <v>59.32475785584313</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>147.4112767519023</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4155759657271</v>
+        <v>246.5681429314305</v>
       </c>
       <c r="O14" t="n">
-        <v>48.61160472234099</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>163.313037272977</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9082,19 +9082,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>104.3983137891472</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>103.3860221017999</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>105.7148695525912</v>
       </c>
       <c r="N16" t="n">
-        <v>95.26431138448922</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>108.5102821731398</v>
@@ -9875,10 +9875,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>160.0091951480956</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>181.1760889804559</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,16 +9887,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>170.8428518572273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>102.9618319903679</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>97.03390299193971</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,13 +9963,13 @@
         <v>78.10243564664658</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>65.61538793357964</v>
       </c>
       <c r="O27" t="n">
-        <v>82.46949852711552</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>85.71739294811707</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10033,19 +10033,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>104.3983137891472</v>
       </c>
       <c r="L28" t="n">
-        <v>103.3860221017999</v>
+        <v>125.4202388491433</v>
       </c>
       <c r="M28" t="n">
-        <v>105.7148695525912</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>106.9466904828351</v>
+        <v>95.26431138448922</v>
       </c>
       <c r="O28" t="n">
-        <v>108.5102821731398</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10112,13 +10112,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>335.2377213419263</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>234.2069490795569</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,31 +10188,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>79.13424943560008</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>83.68361168878403</v>
       </c>
       <c r="M30" t="n">
-        <v>78.10243564664664</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>65.61538793357964</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>253.2899167275444</v>
       </c>
       <c r="P30" t="n">
-        <v>85.71739294811711</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>60.58259163735806</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,28 +10267,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>104.3983137891472</v>
       </c>
       <c r="L31" t="n">
-        <v>103.3860221017999</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>105.7148695525913</v>
+        <v>105.7148695525912</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>95.26431138448922</v>
       </c>
       <c r="O31" t="n">
-        <v>108.5102821731398</v>
+        <v>124.2443332125289</v>
       </c>
       <c r="P31" t="n">
-        <v>112.1038084270828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10352,10 +10352,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>34.26754035895196</v>
       </c>
       <c r="M32" t="n">
-        <v>278.3031925040872</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>171.300629650323</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10437,10 +10437,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>65.61538793357964</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>163.984909481829</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>95.26431138448922</v>
       </c>
       <c r="O34" t="n">
         <v>108.5102821731398</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,25 +10583,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>140.9584812516001</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>364.4833465682146</v>
       </c>
       <c r="M35" t="n">
-        <v>350.6635746852216</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>328.0065601526333</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>146.716998319224</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>104.3983137891472</v>
@@ -10750,19 +10750,19 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>95.26431138448922</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>108.5102821731398</v>
       </c>
       <c r="P37" t="n">
-        <v>112.1038084270828</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>364.4833465682149</v>
       </c>
       <c r="M38" t="n">
-        <v>350.6635746852219</v>
+        <v>41.28564984540168</v>
       </c>
       <c r="N38" t="n">
-        <v>348.3884307529411</v>
+        <v>348.3884307529429</v>
       </c>
       <c r="O38" t="n">
-        <v>344.8668544427446</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.812541415004745</v>
+        <v>319.0462984648852</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>83.68361168878403</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10987,19 +10987,19 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>105.7148695525912</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>95.26431138448922</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>108.5102821731398</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>112.1038084270828</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>160.0091951480956</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>364.483346568215</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>147.4112767519023</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>95.54026966473376</v>
+        <v>157.7301817323289</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11148,10 +11148,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>65.61538793357964</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>82.46949852711552</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11215,28 +11215,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>104.3983137891472</v>
       </c>
       <c r="L43" t="n">
         <v>103.3860221017999</v>
       </c>
       <c r="M43" t="n">
-        <v>77.26543269956693</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>95.26431138448922</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>108.5102821731398</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11300,25 +11300,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>147.4112767519023</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>89.13830600944826</v>
       </c>
       <c r="P44" t="n">
-        <v>228.0512944669056</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,10 +11382,10 @@
         <v>83.68361168878403</v>
       </c>
       <c r="M45" t="n">
-        <v>63.18350572665035</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>23.07751237841229</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11467,13 +11467,13 @@
         <v>95.26431138448922</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>112.1038084270828</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.8081824520666</v>
+        <v>74.78881401970305</v>
       </c>
       <c r="C11" t="n">
-        <v>160.3472325595936</v>
+        <v>160.3472325595935</v>
       </c>
       <c r="D11" t="n">
-        <v>149.757382409269</v>
+        <v>149.7573824092689</v>
       </c>
       <c r="E11" t="n">
         <v>177.0047108608478</v>
       </c>
       <c r="F11" t="n">
-        <v>98.93101809793397</v>
+        <v>201.9503865302974</v>
       </c>
       <c r="G11" t="n">
-        <v>106.8853915953879</v>
+        <v>209.9047600277513</v>
       </c>
       <c r="H11" t="n">
-        <v>38.97255364535243</v>
+        <v>129.7120133605781</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>16.10261709965988</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>46.38220823434494</v>
+        <v>46.38220823434489</v>
       </c>
       <c r="V11" t="n">
-        <v>122.8265992587209</v>
+        <v>19.80723082635738</v>
       </c>
       <c r="W11" t="n">
-        <v>41.29594107363555</v>
+        <v>41.2959410736355</v>
       </c>
       <c r="X11" t="n">
-        <v>164.8054414670551</v>
+        <v>164.805441467055</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.3122794446396</v>
+        <v>106.6754368290737</v>
       </c>
     </row>
     <row r="12">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.8081824520667</v>
+        <v>177.8081824520666</v>
       </c>
       <c r="C14" t="n">
-        <v>160.3472325595937</v>
+        <v>57.32786412723011</v>
       </c>
       <c r="D14" t="n">
-        <v>149.7573824092691</v>
+        <v>149.757382409269</v>
       </c>
       <c r="E14" t="n">
-        <v>177.0047108608479</v>
+        <v>73.98534242848434</v>
       </c>
       <c r="F14" t="n">
         <v>201.9503865302975</v>
@@ -23510,7 +23510,7 @@
         <v>106.8853915953879</v>
       </c>
       <c r="H14" t="n">
-        <v>26.69264492821474</v>
+        <v>129.7120133605782</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>16.10261709965996</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>19.80723082635754</v>
+        <v>122.826599258721</v>
       </c>
       <c r="W14" t="n">
-        <v>144.3153095059991</v>
+        <v>116.0606751247783</v>
       </c>
       <c r="X14" t="n">
         <v>164.8054414670551</v>
       </c>
       <c r="Y14" t="n">
-        <v>136.955027963759</v>
+        <v>181.3122794446396</v>
       </c>
     </row>
     <row r="15">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-3.801403636316536e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-2.913225216616411e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>983709.7370546027</v>
+        <v>983709.7370546029</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1236768.977646672</v>
+        <v>1236768.977646673</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1185091.490075042</v>
+        <v>1185091.490075043</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1185091.490075042</v>
+        <v>1185091.490075043</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1185091.490075042</v>
+        <v>1185091.490075043</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1185091.490075042</v>
+        <v>1185091.490075043</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>327710.5354868154</v>
+        <v>327710.5354868153</v>
       </c>
       <c r="C2" t="n">
         <v>327710.5354868154</v>
       </c>
       <c r="D2" t="n">
-        <v>327710.5354868153</v>
+        <v>327710.5354868154</v>
       </c>
       <c r="E2" t="n">
         <v>281216.0871326728</v>
       </c>
       <c r="F2" t="n">
-        <v>281216.0871326727</v>
+        <v>281216.087132673</v>
       </c>
       <c r="G2" t="n">
         <v>328416.7079457131</v>
@@ -26335,25 +26335,25 @@
         <v>328416.7079457131</v>
       </c>
       <c r="J2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="K2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="L2" t="n">
         <v>328416.7079457134</v>
       </c>
       <c r="M2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="N2" t="n">
-        <v>328416.707945713</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="O2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457135</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161488.4078639646</v>
+        <v>161488.4078639647</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>103769.6106884626</v>
       </c>
       <c r="M3" t="n">
-        <v>24336.39002005548</v>
+        <v>24336.39002005511</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>50043.86070040357</v>
+        <v>50043.86070040366</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>362546.603349822</v>
+        <v>362546.6033498221</v>
       </c>
       <c r="F4" t="n">
         <v>362546.603349822</v>
@@ -26436,7 +26436,7 @@
         <v>428069.0404678961</v>
       </c>
       <c r="I4" t="n">
-        <v>428069.0404678961</v>
+        <v>428069.040467896</v>
       </c>
       <c r="J4" t="n">
         <v>436259.1448627572</v>
@@ -26445,19 +26445,19 @@
         <v>436259.1448627572</v>
       </c>
       <c r="L4" t="n">
-        <v>436259.1448627572</v>
+        <v>436259.1448627573</v>
       </c>
       <c r="M4" t="n">
-        <v>433189.2498249456</v>
+        <v>433189.2498249457</v>
       </c>
       <c r="N4" t="n">
         <v>433189.2498249457</v>
       </c>
       <c r="O4" t="n">
-        <v>433189.2498249456</v>
+        <v>433189.2498249458</v>
       </c>
       <c r="P4" t="n">
-        <v>433189.2498249456</v>
+        <v>433189.2498249457</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26485,10 @@
         <v>36957.49602715738</v>
       </c>
       <c r="H5" t="n">
-        <v>36957.49602715738</v>
+        <v>36957.49602715737</v>
       </c>
       <c r="I5" t="n">
-        <v>36957.49602715738</v>
+        <v>36957.49602715737</v>
       </c>
       <c r="J5" t="n">
         <v>50885.65162086484</v>
@@ -26500,16 +26500,16 @@
         <v>50885.65162086485</v>
       </c>
       <c r="M5" t="n">
-        <v>47179.49398592203</v>
+        <v>47179.49398592208</v>
       </c>
       <c r="N5" t="n">
-        <v>47179.49398592205</v>
+        <v>47179.4939859221</v>
       </c>
       <c r="O5" t="n">
-        <v>47179.49398592205</v>
+        <v>47179.49398592209</v>
       </c>
       <c r="P5" t="n">
-        <v>47179.49398592205</v>
+        <v>47179.49398592209</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-173533.0244449158</v>
+        <v>-173537.438022784</v>
       </c>
       <c r="C6" t="n">
-        <v>-173533.0244449158</v>
+        <v>-173537.438022784</v>
       </c>
       <c r="D6" t="n">
-        <v>-173533.0244449159</v>
+        <v>-173537.438022784</v>
       </c>
       <c r="E6" t="n">
-        <v>-396474.2499174172</v>
+        <v>-396769.2537974989</v>
       </c>
       <c r="F6" t="n">
-        <v>-107383.2529930961</v>
+        <v>-107678.2568731775</v>
       </c>
       <c r="G6" t="n">
-        <v>-240379.4392378031</v>
+        <v>-240379.439237803</v>
       </c>
       <c r="H6" t="n">
-        <v>-136609.8285493405</v>
+        <v>-136609.8285493403</v>
       </c>
       <c r="I6" t="n">
-        <v>-136609.8285493405</v>
+        <v>-136609.8285493403</v>
       </c>
       <c r="J6" t="n">
-        <v>-320216.4964018734</v>
+        <v>-320216.4964018733</v>
       </c>
       <c r="K6" t="n">
-        <v>-158728.0885379088</v>
+        <v>-158728.0885379087</v>
       </c>
       <c r="L6" t="n">
-        <v>-262497.6992263713</v>
+        <v>-262497.6992263714</v>
       </c>
       <c r="M6" t="n">
-        <v>-176288.42588521</v>
+        <v>-176288.4258852094</v>
       </c>
       <c r="N6" t="n">
-        <v>-151952.0358651547</v>
+        <v>-151952.0358651543</v>
       </c>
       <c r="O6" t="n">
-        <v>-201995.8965655581</v>
+        <v>-201995.896565558</v>
       </c>
       <c r="P6" t="n">
-        <v>-151952.0358651546</v>
+        <v>-151952.0358651543</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>192.2668392360828</v>
       </c>
       <c r="M2" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="N2" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="O2" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="P2" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
     </row>
     <row r="3">
@@ -26762,7 +26762,7 @@
         <v>117.4891711474711</v>
       </c>
       <c r="K3" t="n">
-        <v>117.489171147471</v>
+        <v>117.4891711474711</v>
       </c>
       <c r="L3" t="n">
         <v>117.4891711474711</v>
@@ -26808,7 +26808,7 @@
         <v>103.0193684323635</v>
       </c>
       <c r="I4" t="n">
-        <v>103.0193684323635</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="J4" t="n">
         <v>528.9589931268376</v>
@@ -26820,16 +26820,16 @@
         <v>528.9589931268376</v>
       </c>
       <c r="M4" t="n">
-        <v>425.9396246944715</v>
+        <v>425.9396246944728</v>
       </c>
       <c r="N4" t="n">
-        <v>425.9396246944717</v>
+        <v>425.9396246944731</v>
       </c>
       <c r="O4" t="n">
-        <v>425.9396246944717</v>
+        <v>425.9396246944731</v>
       </c>
       <c r="P4" t="n">
-        <v>425.9396246944717</v>
+        <v>425.9396246944731</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>129.7120133605783</v>
+        <v>129.7120133605782</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>62.55482587550455</v>
+        <v>62.55482587550466</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>129.7120133605783</v>
       </c>
       <c r="M2" t="n">
-        <v>30.42048752506935</v>
+        <v>30.42048752506889</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.55482587550446</v>
+        <v>62.55482587550458</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.7120133605783</v>
+        <v>129.7120133605782</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.55482587550455</v>
+        <v>62.55482587550466</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28108,37 +28108,37 @@
         <v>204.925659211414</v>
       </c>
       <c r="I11" t="n">
-        <v>192.2668392360828</v>
+        <v>204.925659211414</v>
       </c>
       <c r="J11" t="n">
         <v>204.925659211414</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>204.925659211414</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>204.925659211414</v>
       </c>
       <c r="M11" t="n">
         <v>204.925659211414</v>
       </c>
       <c r="N11" t="n">
+        <v>63.60717247051003</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>52.7549124488596</v>
+      </c>
+      <c r="R11" t="n">
         <v>204.925659211414</v>
       </c>
-      <c r="O11" t="n">
-        <v>103.5205585185476</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="S11" t="n">
         <v>204.925659211414</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>185.9162749112484</v>
-      </c>
-      <c r="S11" t="n">
-        <v>198.257116872585</v>
       </c>
       <c r="T11" t="n">
         <v>204.925659211414</v>
@@ -28184,13 +28184,13 @@
         <v>137.0908046064029</v>
       </c>
       <c r="H12" t="n">
-        <v>204.925659211414</v>
+        <v>109.7947729641688</v>
       </c>
       <c r="I12" t="n">
         <v>90.82153100464483</v>
       </c>
       <c r="J12" t="n">
-        <v>102.9618319903679</v>
+        <v>202.1840659347874</v>
       </c>
       <c r="K12" t="n">
         <v>97.03390299193971</v>
@@ -28202,7 +28202,7 @@
         <v>78.10243564664658</v>
       </c>
       <c r="N12" t="n">
-        <v>69.70673563075435</v>
+        <v>65.61538793357964</v>
       </c>
       <c r="O12" t="n">
         <v>82.46949852711552</v>
@@ -28245,22 +28245,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>204.925659211414</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>204.925659211414</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>181.6655843708765</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>204.925659211414</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7791136399961</v>
+        <v>204.925659211414</v>
       </c>
       <c r="H13" t="n">
         <v>160.343493665108</v>
@@ -28269,28 +28269,28 @@
         <v>149.0790949574905</v>
       </c>
       <c r="J13" t="n">
-        <v>204.925659211414</v>
+        <v>112.0165151440866</v>
       </c>
       <c r="K13" t="n">
-        <v>104.3983137891472</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>103.3860221017999</v>
       </c>
       <c r="M13" t="n">
-        <v>197.6626047223648</v>
+        <v>105.7148695525912</v>
       </c>
       <c r="N13" t="n">
-        <v>198.2836798168527</v>
+        <v>95.26431138448922</v>
       </c>
       <c r="O13" t="n">
-        <v>108.5102821731398</v>
+        <v>204.925659211414</v>
       </c>
       <c r="P13" t="n">
         <v>112.1038084270828</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.7641367861777</v>
+        <v>68.42117840842624</v>
       </c>
       <c r="R13" t="n">
         <v>167.7671382542942</v>
@@ -28351,31 +28351,31 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>188.6929624210765</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="L14" t="n">
         <v>204.9256592114139</v>
       </c>
       <c r="M14" t="n">
-        <v>204.9256592114139</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>135.7399252862579</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>204.9256592114139</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="Q14" t="n">
-        <v>171.300629650323</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="R14" t="n">
-        <v>120.1998550382659</v>
+        <v>129.7743099119786</v>
       </c>
       <c r="S14" t="n">
-        <v>198.257116872585</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="T14" t="n">
         <v>204.9256592114139</v>
@@ -28433,10 +28433,10 @@
         <v>97.03390299193971</v>
       </c>
       <c r="L15" t="n">
-        <v>182.9058456332043</v>
+        <v>83.68361168878403</v>
       </c>
       <c r="M15" t="n">
-        <v>78.10243564664658</v>
+        <v>177.3246695910666</v>
       </c>
       <c r="N15" t="n">
         <v>65.61538793357964</v>
@@ -28488,7 +28488,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>199.8769146982177</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -28497,34 +28497,34 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.7791136399961</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="H16" t="n">
         <v>204.9256592114139</v>
       </c>
       <c r="I16" t="n">
-        <v>149.0790949574905</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="J16" t="n">
-        <v>78.38027382136323</v>
+        <v>112.0165151440866</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>103.3860221017999</v>
       </c>
       <c r="M16" t="n">
-        <v>204.9256592114139</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>145.0379382600399</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>204.9256592114139</v>
+        <v>112.1038084270828</v>
       </c>
       <c r="Q16" t="n">
         <v>133.7641367861777</v>
@@ -28582,16 +28582,16 @@
         <v>334.6376725719921</v>
       </c>
       <c r="I17" t="n">
-        <v>295.2862076684463</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="J17" t="n">
-        <v>243.9778496839636</v>
+        <v>140.9584812516001</v>
       </c>
       <c r="K17" t="n">
-        <v>263.0285635804591</v>
+        <v>160.0091951480956</v>
       </c>
       <c r="L17" t="n">
-        <v>161.2310486348936</v>
+        <v>260.0880183427171</v>
       </c>
       <c r="M17" t="n">
         <v>147.4112767519023</v>
@@ -28600,10 +28600,10 @@
         <v>145.1361328196215</v>
       </c>
       <c r="O17" t="n">
-        <v>242.4894511073576</v>
+        <v>253.5372639337549</v>
       </c>
       <c r="P17" t="n">
-        <v>163.313037272977</v>
+        <v>266.3324057053404</v>
       </c>
       <c r="Q17" t="n">
         <v>171.300629650323</v>
@@ -28615,13 +28615,13 @@
         <v>198.257116872585</v>
       </c>
       <c r="T17" t="n">
-        <v>221.0282763110739</v>
+        <v>324.0476447434373</v>
       </c>
       <c r="U17" t="n">
         <v>251.3078674457589</v>
       </c>
       <c r="V17" t="n">
-        <v>334.6376725719921</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>334.6376725719921</v>
@@ -28819,16 +28819,16 @@
         <v>334.6376725719921</v>
       </c>
       <c r="I20" t="n">
-        <v>192.2668392360828</v>
+        <v>295.2862076684463</v>
       </c>
       <c r="J20" t="n">
-        <v>140.9584812516001</v>
+        <v>243.9778496839636</v>
       </c>
       <c r="K20" t="n">
         <v>160.0091951480956</v>
       </c>
       <c r="L20" t="n">
-        <v>161.2310486348936</v>
+        <v>264.250417067257</v>
       </c>
       <c r="M20" t="n">
         <v>147.4112767519023</v>
@@ -28837,7 +28837,7 @@
         <v>145.1361328196215</v>
       </c>
       <c r="O20" t="n">
-        <v>253.5372639337548</v>
+        <v>150.5178955013914</v>
       </c>
       <c r="P20" t="n">
         <v>163.313037272977</v>
@@ -28846,16 +28846,16 @@
         <v>171.300629650323</v>
       </c>
       <c r="R20" t="n">
-        <v>288.9356433436118</v>
+        <v>185.9162749112484</v>
       </c>
       <c r="S20" t="n">
-        <v>290.2286724785513</v>
+        <v>206.8988673523182</v>
       </c>
       <c r="T20" t="n">
-        <v>324.0476447434373</v>
+        <v>221.0282763110739</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3078674457589</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="V20" t="n">
         <v>334.6376725719921</v>
@@ -29059,10 +29059,10 @@
         <v>192.2668392360828</v>
       </c>
       <c r="J23" t="n">
-        <v>243.9778496839636</v>
+        <v>140.9584812516001</v>
       </c>
       <c r="K23" t="n">
-        <v>160.0091951480956</v>
+        <v>263.028563580459</v>
       </c>
       <c r="L23" t="n">
         <v>161.2310486348936</v>
@@ -29071,13 +29071,13 @@
         <v>147.4112767519023</v>
       </c>
       <c r="N23" t="n">
-        <v>248.155501251985</v>
+        <v>145.1361328196215</v>
       </c>
       <c r="O23" t="n">
-        <v>150.5178955013914</v>
+        <v>253.5372639337548</v>
       </c>
       <c r="P23" t="n">
-        <v>266.3324057053404</v>
+        <v>163.313037272977</v>
       </c>
       <c r="Q23" t="n">
         <v>171.300629650323</v>
@@ -29086,16 +29086,16 @@
         <v>185.9162749112484</v>
       </c>
       <c r="S23" t="n">
-        <v>198.257116872585</v>
+        <v>301.2764853049484</v>
       </c>
       <c r="T23" t="n">
-        <v>319.8852460188974</v>
+        <v>312.9998319170401</v>
       </c>
       <c r="U23" t="n">
         <v>251.3078674457589</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="W23" t="n">
         <v>334.6376725719921</v>
@@ -29296,28 +29296,28 @@
         <v>192.2668392360827</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>192.2668392360827</v>
-      </c>
-      <c r="L26" t="n">
-        <v>120.0188659139101</v>
       </c>
       <c r="M26" t="n">
         <v>192.2668392360827</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="O26" t="n">
         <v>192.2668392360827</v>
       </c>
       <c r="P26" t="n">
-        <v>192.2668392360827</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>192.2668392360827</v>
+        <v>54.60059120295531</v>
       </c>
       <c r="R26" t="n">
         <v>192.2668392360827</v>
@@ -29354,16 +29354,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>192.2668392360827</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>192.2668392360827</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>182.8125861840423</v>
       </c>
       <c r="G27" t="n">
         <v>137.0908046064029</v>
@@ -29372,13 +29372,13 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I27" t="n">
-        <v>112.7182339369717</v>
+        <v>80.6957838560599</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>102.9618319903679</v>
       </c>
       <c r="K27" t="n">
-        <v>97.03390299193971</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>83.68361168878403</v>
@@ -29387,22 +29387,22 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>65.61538793357964</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>82.46949852711552</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>85.71739294811707</v>
       </c>
       <c r="Q27" t="n">
+        <v>107.7232378871913</v>
+      </c>
+      <c r="R27" t="n">
         <v>192.2668392360827</v>
       </c>
-      <c r="R27" t="n">
-        <v>84.46748786242048</v>
-      </c>
       <c r="S27" t="n">
-        <v>166.9891461999742</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="T27" t="n">
         <v>192.2668392360827</v>
@@ -29439,16 +29439,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>192.2668392360827</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>192.2668392360827</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>192.2668392360827</v>
+        <v>167.7791136399961</v>
       </c>
       <c r="H28" t="n">
-        <v>192.2668392360827</v>
+        <v>160.343493665108</v>
       </c>
       <c r="I28" t="n">
         <v>149.0790949574905</v>
@@ -29463,16 +29463,16 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
         <v>192.2668392360827</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>68.42117840842624</v>
@@ -29533,7 +29533,7 @@
         <v>192.2668392360828</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="K29" t="n">
         <v>192.2668392360828</v>
@@ -29548,16 +29548,16 @@
         <v>192.2668392360828</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="P29" t="n">
-        <v>192.2668392360828</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>192.2668392360828</v>
+        <v>120.1998550382659</v>
       </c>
       <c r="S29" t="n">
         <v>192.2668392360828</v>
@@ -29600,7 +29600,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>192.2668392360828</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.0908046064029</v>
@@ -29609,37 +29609,37 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I30" t="n">
-        <v>90.82153100464484</v>
+        <v>90.82153100464483</v>
       </c>
       <c r="J30" t="n">
-        <v>23.82758255476781</v>
+        <v>102.9618319903679</v>
       </c>
       <c r="K30" t="n">
-        <v>97.03390299193975</v>
+        <v>97.03390299193971</v>
       </c>
       <c r="L30" t="n">
-        <v>83.68361168878407</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>78.10243564664658</v>
       </c>
       <c r="N30" t="n">
-        <v>163.9604862552009</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>82.46949852711558</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>85.71739294811707</v>
       </c>
       <c r="Q30" t="n">
-        <v>107.7232378871914</v>
+        <v>47.14064624983329</v>
       </c>
       <c r="R30" t="n">
-        <v>129.9891576737413</v>
+        <v>84.46748786242048</v>
       </c>
       <c r="S30" t="n">
-        <v>192.2668392360828</v>
+        <v>166.9891461999742</v>
       </c>
       <c r="T30" t="n">
         <v>192.2668392360828</v>
@@ -29679,34 +29679,34 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>154.7046605490995</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.7791136399961</v>
       </c>
       <c r="H31" t="n">
-        <v>192.2668392360828</v>
+        <v>160.343493665108</v>
       </c>
       <c r="I31" t="n">
         <v>149.0790949574905</v>
       </c>
       <c r="J31" t="n">
+        <v>112.0165151440866</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>192.2668392360828</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>192.2668392360828</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29770,22 +29770,22 @@
         <v>192.2668392360828</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>192.2668392360828</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>192.2668392360828</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>192.2668392360828</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>192.2668392360828</v>
@@ -29794,7 +29794,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>185.0212088074009</v>
+        <v>163.9233417644899</v>
       </c>
       <c r="S32" t="n">
         <v>192.2668392360828</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>192.2668392360828</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -29846,10 +29846,10 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I33" t="n">
+        <v>80.6957838560599</v>
+      </c>
+      <c r="J33" t="n">
         <v>192.2668392360828</v>
-      </c>
-      <c r="J33" t="n">
-        <v>102.9618319903679</v>
       </c>
       <c r="K33" t="n">
         <v>97.03390299193971</v>
@@ -29858,13 +29858,13 @@
         <v>83.68361168878403</v>
       </c>
       <c r="M33" t="n">
-        <v>121.7438900294216</v>
+        <v>78.10243564664658</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>65.61538793357964</v>
       </c>
       <c r="O33" t="n">
-        <v>82.46949852711552</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>85.71739294811707</v>
@@ -29873,7 +29873,7 @@
         <v>107.7232378871913</v>
       </c>
       <c r="R33" t="n">
-        <v>129.9891576737413</v>
+        <v>84.46748786242048</v>
       </c>
       <c r="S33" t="n">
         <v>166.9891461999742</v>
@@ -29916,7 +29916,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>192.2668392360828</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.7791136399961</v>
@@ -29925,13 +29925,13 @@
         <v>160.343493665108</v>
       </c>
       <c r="I34" t="n">
-        <v>192.2668392360828</v>
+        <v>149.0790949574905</v>
       </c>
       <c r="J34" t="n">
         <v>192.2668392360828</v>
       </c>
       <c r="K34" t="n">
-        <v>156.6044241634767</v>
+        <v>114.4707689638731</v>
       </c>
       <c r="L34" t="n">
         <v>103.3860221017999</v>
@@ -29940,19 +29940,19 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>95.26431138448922</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>112.1038084270828</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="Q34" t="n">
-        <v>192.2668392360828</v>
+        <v>68.42117840842624</v>
       </c>
       <c r="R34" t="n">
-        <v>192.2668392360828</v>
+        <v>167.7671382542942</v>
       </c>
       <c r="S34" t="n">
         <v>192.2668392360828</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="C35" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="D35" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="E35" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="F35" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="G35" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="H35" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="I35" t="n">
-        <v>222.6873267611522</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>158.0107222216966</v>
+        <v>160.0091951480956</v>
       </c>
       <c r="L35" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="M35" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="N35" t="n">
-        <v>133.7288331021089</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="O35" t="n">
-        <v>222.6873267611522</v>
+        <v>195.6573389331188</v>
       </c>
       <c r="P35" t="n">
-        <v>222.6873267611522</v>
+        <v>117.8741351317165</v>
       </c>
       <c r="Q35" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="R35" t="n">
-        <v>222.6873267611522</v>
+        <v>185.9162749112484</v>
       </c>
       <c r="S35" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="T35" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="U35" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="V35" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="W35" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="X35" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="Y35" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
     </row>
     <row r="36">
@@ -30083,7 +30083,7 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I36" t="n">
-        <v>90.82153100464483</v>
+        <v>80.6957838560599</v>
       </c>
       <c r="J36" t="n">
         <v>102.9618319903679</v>
@@ -30098,7 +30098,7 @@
         <v>78.10243564664658</v>
       </c>
       <c r="N36" t="n">
-        <v>108.8337802218741</v>
+        <v>85.29257320946492</v>
       </c>
       <c r="O36" t="n">
         <v>82.46949852711552</v>
@@ -30116,16 +30116,16 @@
         <v>166.9891461999742</v>
       </c>
       <c r="T36" t="n">
-        <v>199.1461197487412</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="U36" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="V36" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="W36" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -30165,7 +30165,7 @@
         <v>149.0790949574905</v>
       </c>
       <c r="J37" t="n">
-        <v>78.38027382136323</v>
+        <v>112.0165151440866</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,43 +30174,43 @@
         <v>103.3860221017999</v>
       </c>
       <c r="M37" t="n">
-        <v>33.4364371387409</v>
+        <v>105.7148695525912</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>95.26431138448922</v>
       </c>
       <c r="O37" t="n">
-        <v>108.5102821731398</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>188.4347088636223</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.42117840842624</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="R37" t="n">
-        <v>222.6873267611522</v>
+        <v>167.7671382542942</v>
       </c>
       <c r="S37" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="U37" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="V37" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="W37" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="X37" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.6873267611522</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="C38" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="D38" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="E38" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="F38" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="G38" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="H38" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="I38" t="n">
-        <v>192.2668392360828</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="J38" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="K38" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="L38" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="M38" t="n">
-        <v>222.6873267611522</v>
+        <v>106.1256269065007</v>
       </c>
       <c r="N38" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>150.5178955013914</v>
       </c>
       <c r="P38" t="n">
-        <v>160.5004958579722</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="R38" t="n">
-        <v>120.1998550382659</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="S38" t="n">
-        <v>198.257116872585</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="T38" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="U38" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="V38" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="W38" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="X38" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="Y38" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
     </row>
     <row r="39">
@@ -30314,7 +30314,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>180.3091968946973</v>
+        <v>137.0908046064029</v>
       </c>
       <c r="H39" t="n">
         <v>109.7947729641688</v>
@@ -30329,7 +30329,7 @@
         <v>97.03390299193971</v>
       </c>
       <c r="L39" t="n">
-        <v>83.68361168878403</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>78.10243564664658</v>
@@ -30350,19 +30350,19 @@
         <v>129.9891576737413</v>
       </c>
       <c r="S39" t="n">
-        <v>166.9891461999742</v>
+        <v>210.2075384882701</v>
       </c>
       <c r="T39" t="n">
         <v>199.1461197487412</v>
       </c>
       <c r="U39" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="V39" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="W39" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -30408,22 +30408,22 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>156.8260383066864</v>
+        <v>182.0798929197271</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>105.7148695525912</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>95.26431138448922</v>
       </c>
       <c r="O40" t="n">
-        <v>222.6873267611522</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>112.1038084270828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.42117840842624</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="R40" t="n">
         <v>167.7671382542942</v>
@@ -30432,19 +30432,19 @@
         <v>220.324356379764</v>
       </c>
       <c r="T40" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="U40" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="V40" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="W40" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="X40" t="n">
-        <v>222.6873267611522</v>
+        <v>222.6873267611517</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="C41" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="D41" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="E41" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="F41" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="G41" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="I41" t="n">
-        <v>192.2668392360828</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="J41" t="n">
-        <v>140.9584812516001</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="K41" t="n">
-        <v>222.6873267611521</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>161.2310486348936</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="M41" t="n">
-        <v>147.4112767519023</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>133.7288331021091</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="O41" t="n">
-        <v>222.6873267611521</v>
+        <v>211.2949761680487</v>
       </c>
       <c r="P41" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="Q41" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="R41" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="S41" t="n">
-        <v>222.6873267611521</v>
+        <v>198.257116872585</v>
       </c>
       <c r="T41" t="n">
-        <v>221.0282763110739</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="U41" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="V41" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="W41" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="X41" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="Y41" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
     </row>
     <row r="42">
@@ -30563,7 +30563,7 @@
         <v>102.9618319903679</v>
       </c>
       <c r="K42" t="n">
-        <v>140.2522952802344</v>
+        <v>97.03390299193971</v>
       </c>
       <c r="L42" t="n">
         <v>83.68361168878403</v>
@@ -30572,13 +30572,13 @@
         <v>78.10243564664658</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>65.61538793357964</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>82.46949852711552</v>
       </c>
       <c r="P42" t="n">
-        <v>85.71739294811707</v>
+        <v>128.9357852364132</v>
       </c>
       <c r="Q42" t="n">
         <v>107.7232378871913</v>
@@ -30593,13 +30593,13 @@
         <v>199.1461197487412</v>
       </c>
       <c r="U42" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="V42" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="W42" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -30636,31 +30636,31 @@
         <v>160.343493665108</v>
       </c>
       <c r="I43" t="n">
-        <v>206.0253441333242</v>
+        <v>149.0790949574905</v>
       </c>
       <c r="J43" t="n">
-        <v>222.6873267611521</v>
+        <v>78.38027382136323</v>
       </c>
       <c r="K43" t="n">
-        <v>104.3983137891472</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>28.4494368530243</v>
+        <v>105.7148695525912</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>95.26431138448922</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="P43" t="n">
-        <v>112.1038084270828</v>
+        <v>165.5438246319725</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.42117840842624</v>
+        <v>133.7641367861777</v>
       </c>
       <c r="R43" t="n">
         <v>167.7671382542942</v>
@@ -30669,19 +30669,19 @@
         <v>220.324356379764</v>
       </c>
       <c r="T43" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="U43" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="V43" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="W43" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="X43" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="C44" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="D44" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="E44" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="F44" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="G44" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="I44" t="n">
-        <v>222.6873267611521</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="J44" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="K44" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="N44" t="n">
-        <v>222.6873267611521</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="P44" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="Q44" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="R44" t="n">
-        <v>222.6873267611521</v>
+        <v>120.1998550382659</v>
       </c>
       <c r="S44" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="T44" t="n">
-        <v>221.0282763110739</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="U44" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="V44" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="W44" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="X44" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="Y44" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
     </row>
     <row r="45">
@@ -30806,13 +30806,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>14.91892991999624</v>
+        <v>121.3208279349427</v>
       </c>
       <c r="N45" t="n">
-        <v>65.61538793357964</v>
+        <v>42.53787555516734</v>
       </c>
       <c r="O45" t="n">
-        <v>125.6878908154102</v>
+        <v>82.46949852711552</v>
       </c>
       <c r="P45" t="n">
         <v>85.71739294811707</v>
@@ -30830,13 +30830,13 @@
         <v>199.1461197487412</v>
       </c>
       <c r="U45" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="V45" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="W45" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -30870,19 +30870,19 @@
         <v>167.7791136399961</v>
       </c>
       <c r="H46" t="n">
-        <v>209.6715414860025</v>
+        <v>160.343493665108</v>
       </c>
       <c r="I46" t="n">
         <v>149.0790949574905</v>
       </c>
       <c r="J46" t="n">
-        <v>112.0165151440866</v>
+        <v>78.38027382136323</v>
       </c>
       <c r="K46" t="n">
-        <v>222.6873267611521</v>
+        <v>104.3983137891472</v>
       </c>
       <c r="L46" t="n">
-        <v>103.3860221017999</v>
+        <v>161.5515101951014</v>
       </c>
       <c r="M46" t="n">
         <v>105.7148695525912</v>
@@ -30891,34 +30891,34 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>108.5102821731398</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>112.1038084270828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.7641367861777</v>
+        <v>68.42117840842624</v>
       </c>
       <c r="R46" t="n">
-        <v>167.7671382542942</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="S46" t="n">
         <v>220.324356379764</v>
       </c>
       <c r="T46" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="U46" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="V46" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="W46" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="X46" t="n">
-        <v>222.6873267611521</v>
+        <v>222.6873267611516</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4723182759697322</v>
+        <v>0.4723182759697327</v>
       </c>
       <c r="H29" t="n">
-        <v>4.837129543775021</v>
+        <v>4.837129543775026</v>
       </c>
       <c r="I29" t="n">
-        <v>18.20905033432312</v>
+        <v>18.20905033432314</v>
       </c>
       <c r="J29" t="n">
-        <v>40.0874232750861</v>
+        <v>40.08742327508614</v>
       </c>
       <c r="K29" t="n">
-        <v>60.08065589688488</v>
+        <v>60.08065589688493</v>
       </c>
       <c r="L29" t="n">
-        <v>74.53536633509358</v>
+        <v>74.53536633509366</v>
       </c>
       <c r="M29" t="n">
-        <v>82.9349564753703</v>
+        <v>82.93495647537038</v>
       </c>
       <c r="N29" t="n">
-        <v>84.27693077696931</v>
+        <v>84.27693077696939</v>
       </c>
       <c r="O29" t="n">
-        <v>79.58031592029529</v>
+        <v>79.58031592029536</v>
       </c>
       <c r="P29" t="n">
-        <v>67.91995848229251</v>
+        <v>67.91995848229257</v>
       </c>
       <c r="Q29" t="n">
-        <v>51.00506022412646</v>
+        <v>51.00506022412651</v>
       </c>
       <c r="R29" t="n">
-        <v>29.66926290288372</v>
+        <v>29.66926290288375</v>
       </c>
       <c r="S29" t="n">
-        <v>10.76295271366028</v>
+        <v>10.76295271366029</v>
       </c>
       <c r="T29" t="n">
-        <v>2.067573253057504</v>
+        <v>2.067573253057506</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03778546207757857</v>
+        <v>0.03778546207757861</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2527125568077678</v>
+        <v>0.2527125568077681</v>
       </c>
       <c r="H30" t="n">
-        <v>2.440671272327652</v>
+        <v>2.440671272327655</v>
       </c>
       <c r="I30" t="n">
-        <v>8.700848995355164</v>
+        <v>8.700848995355173</v>
       </c>
       <c r="J30" t="n">
-        <v>23.8757946762988</v>
+        <v>23.87579467629882</v>
       </c>
       <c r="K30" t="n">
-        <v>40.80753598241924</v>
+        <v>40.80753598241928</v>
       </c>
       <c r="L30" t="n">
-        <v>54.87076809109011</v>
+        <v>54.87076809109016</v>
       </c>
       <c r="M30" t="n">
-        <v>64.03159827537168</v>
+        <v>64.03159827537173</v>
       </c>
       <c r="N30" t="n">
-        <v>65.72632414975361</v>
+        <v>65.72632414975367</v>
       </c>
       <c r="O30" t="n">
-        <v>60.12674591732885</v>
+        <v>60.12674591732891</v>
       </c>
       <c r="P30" t="n">
-        <v>48.25701446621314</v>
+        <v>48.25701446621318</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.25853619883015</v>
+        <v>32.25853619883018</v>
       </c>
       <c r="R30" t="n">
-        <v>15.69034629022264</v>
+        <v>15.69034629022266</v>
       </c>
       <c r="S30" t="n">
-        <v>4.694024903863578</v>
+        <v>4.694024903863583</v>
       </c>
       <c r="T30" t="n">
-        <v>1.018608946080432</v>
+        <v>1.018608946080433</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0166258261057742</v>
+        <v>0.01662582610577422</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2118657184626526</v>
+        <v>0.2118657184626528</v>
       </c>
       <c r="H31" t="n">
-        <v>1.883678842331585</v>
+        <v>1.883678842331587</v>
       </c>
       <c r="I31" t="n">
-        <v>6.371379969767772</v>
+        <v>6.371379969767778</v>
       </c>
       <c r="J31" t="n">
-        <v>14.97890629530954</v>
+        <v>14.97890629530955</v>
       </c>
       <c r="K31" t="n">
-        <v>24.61494438138817</v>
+        <v>24.6149443813882</v>
       </c>
       <c r="L31" t="n">
-        <v>31.49865417943837</v>
+        <v>31.4986541794384</v>
       </c>
       <c r="M31" t="n">
-        <v>33.21091439501379</v>
+        <v>33.21091439501383</v>
       </c>
       <c r="N31" t="n">
-        <v>32.42123308074394</v>
+        <v>32.42123308074397</v>
       </c>
       <c r="O31" t="n">
-        <v>29.94625627870294</v>
+        <v>29.94625627870297</v>
       </c>
       <c r="P31" t="n">
-        <v>25.62419562206481</v>
+        <v>25.62419562206483</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.74086484326812</v>
+        <v>17.74086484326813</v>
       </c>
       <c r="R31" t="n">
-        <v>9.526253122875266</v>
+        <v>9.526253122875277</v>
       </c>
       <c r="S31" t="n">
-        <v>3.692241657208226</v>
+        <v>3.692241657208229</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9052444334313334</v>
+        <v>0.9052444334313343</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0115563119161447</v>
+        <v>0.01155631191614471</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>12.65881997533126</v>
       </c>
       <c r="J11" t="n">
-        <v>63.96717795981382</v>
+        <v>63.96717795981388</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>44.91646406331841</v>
       </c>
       <c r="L11" t="n">
-        <v>103.0193684323635</v>
+        <v>43.69461057652045</v>
       </c>
       <c r="M11" t="n">
-        <v>57.51438245951162</v>
+        <v>57.51438245951168</v>
       </c>
       <c r="N11" t="n">
-        <v>59.78952639179245</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>82.61025875185095</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.01436100958171</v>
+        <v>93.7692734584413</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>84.72580417314809</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.668542338828981</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35480,13 +35480,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>95.13088624724516</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>99.22223394441957</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>4.091347697174706</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35541,22 +35541,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>25.09367902947673</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>37.6788381127862</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>33.05011135266414</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.49169656484486</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>37.14654557141792</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.90914406732742</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -35574,13 +35574,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>91.94773516977357</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>103.0193684323635</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>96.41537703827422</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.65881997533111</v>
+        <v>12.65881997533117</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>28.68376727298093</v>
+        <v>44.91646406331833</v>
       </c>
       <c r="L14" t="n">
         <v>103.0193684323635</v>
       </c>
       <c r="M14" t="n">
-        <v>57.51438245951154</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>103.0193684323635</v>
+        <v>101.432010111809</v>
       </c>
       <c r="O14" t="n">
-        <v>103.0193684323635</v>
+        <v>54.40776371002258</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>41.61262193843697</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>33.62502956109097</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>9.574454873712671</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.668542338828896</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35729,10 +35729,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>99.22223394442028</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>99.22223394442</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35784,7 +35784,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>51.26144168000538</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35793,34 +35793,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>37.14654557141784</v>
       </c>
       <c r="H16" t="n">
-        <v>44.58216554630589</v>
+        <v>44.58216554630595</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>55.84656425392344</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>100.5273454222668</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>99.21078965882266</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>49.77362687555065</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>92.8218507843311</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,46 +35878,46 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>98.85696970782358</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>103.0193684323635</v>
       </c>
-      <c r="J17" t="n">
+      <c r="P17" t="n">
         <v>103.0193684323635</v>
       </c>
-      <c r="K17" t="n">
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>103.0193684323635</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>91.97155560596627</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.885414101857236</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,16 +36115,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>103.0193684323635</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>103.0193684323635</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,19 +36142,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>103.0193684323635</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>91.9715556059663</v>
+        <v>8.641750479733155</v>
       </c>
       <c r="T20" t="n">
-        <v>103.0193684323635</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>83.32980512623317</v>
       </c>
       <c r="V20" t="n">
-        <v>6.885414101857236</v>
+        <v>6.88541410185718</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>103.0193684323635</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36367,13 +36367,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>103.0193684323635</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="P23" t="n">
-        <v>103.0193684323635</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36382,16 +36382,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="T23" t="n">
-        <v>98.85696970782352</v>
+        <v>91.97155560596627</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>6.88541410185718</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>28.13813392047362</v>
+        <v>220.4049731565563</v>
       </c>
       <c r="K26" t="n">
-        <v>356.4030566591518</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>376.4490318294669</v>
+        <v>212.211879581645</v>
       </c>
       <c r="M26" t="n">
         <v>494.3690959770128</v>
       </c>
       <c r="N26" t="n">
-        <v>292.2107915923626</v>
+        <v>484.4776308284453</v>
       </c>
       <c r="O26" t="n">
-        <v>212.5917955919187</v>
+        <v>422.5491249974367</v>
       </c>
       <c r="P26" t="n">
-        <v>28.95380196310575</v>
+        <v>158.4856708985057</v>
       </c>
       <c r="Q26" t="n">
-        <v>233.2812002456644</v>
+        <v>95.61495221253702</v>
       </c>
       <c r="R26" t="n">
-        <v>72.06698419781678</v>
+        <v>6.350564324834341</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36650,16 +36650,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>19.55834024776698</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>44.82177367144396</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>37.74337379065847</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>21.89670293232688</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36692,13 +36692,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>84.54360134889137</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>107.7993513736622</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>25.27769303610848</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -36735,16 +36735,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>45.83287658951355</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>46.84579121315147</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>24.48772559608661</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>31.92334557097473</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2.345452555505346</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>22.03421674734341</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>86.55196968349149</v>
       </c>
       <c r="N28" t="n">
-        <v>203.9492183344286</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>54.53138419274264</v>
       </c>
       <c r="P28" t="n">
-        <v>22.90275488695832</v>
+        <v>215.169594123041</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>28.13813392047358</v>
+        <v>220.4049731565564</v>
       </c>
       <c r="K29" t="n">
-        <v>32.25764408798713</v>
+        <v>356.4030566591519</v>
       </c>
       <c r="L29" t="n">
-        <v>448.6970051516396</v>
+        <v>366.2735119431155</v>
       </c>
       <c r="M29" t="n">
-        <v>494.3690959770129</v>
+        <v>44.85556248418042</v>
       </c>
       <c r="N29" t="n">
-        <v>484.4776308284453</v>
+        <v>484.4776308284454</v>
       </c>
       <c r="O29" t="n">
-        <v>230.2822857613539</v>
+        <v>422.5491249974367</v>
       </c>
       <c r="P29" t="n">
-        <v>263.1607510426627</v>
+        <v>158.4856708985057</v>
       </c>
       <c r="Q29" t="n">
-        <v>41.01436100958166</v>
+        <v>41.01436100958171</v>
       </c>
       <c r="R29" t="n">
-        <v>72.06698419781684</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36896,7 +36896,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>47.19762684269892</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>98.34509832162118</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>170.8204182004288</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36935,7 +36935,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>25.27769303610856</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -36975,40 +36975,40 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.283612526168218</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>31.92334557097481</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>113.8865654147196</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>2.345452555505322</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>88.88081713428289</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>97.00252785159356</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>208.0008902754719</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>22.90275488695832</v>
       </c>
       <c r="Q31" t="n">
-        <v>123.8456608276565</v>
+        <v>58.50270244990507</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>28.13813392047362</v>
+        <v>220.4049731565565</v>
       </c>
       <c r="K32" t="n">
-        <v>356.403056659152</v>
+        <v>164.1362174230691</v>
       </c>
       <c r="L32" t="n">
-        <v>256.4301659155569</v>
+        <v>65.30333096014122</v>
       </c>
       <c r="M32" t="n">
-        <v>323.1587549882677</v>
+        <v>494.3690959770129</v>
       </c>
       <c r="N32" t="n">
-        <v>484.4776308284455</v>
+        <v>292.2107915923626</v>
       </c>
       <c r="O32" t="n">
-        <v>230.282285761354</v>
+        <v>422.5491249974368</v>
       </c>
       <c r="P32" t="n">
         <v>350.7525101345885</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>41.01436100958171</v>
       </c>
       <c r="R32" t="n">
-        <v>64.82135376913492</v>
+        <v>43.72348672622401</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37121,7 +37121,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.73365558621549</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>101.445308231438</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>89.30500724571496</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>43.641454382775</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>81.51541095471353</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37212,7 +37212,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>46.84579121315159</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,13 +37221,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>43.18774427859233</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>80.25032409199628</v>
       </c>
       <c r="K34" t="n">
-        <v>52.20611037432947</v>
+        <v>10.07245517472596</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37242,13 +37242,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>215.1695941230412</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.50270244990512</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.49970098178862</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>30.4204875250694</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>28.13813392047362</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>322.1469396447657</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>61.4562781262586</v>
+        <v>425.9396246944728</v>
       </c>
       <c r="M35" t="n">
-        <v>425.9396246944715</v>
+        <v>75.27605000924937</v>
       </c>
       <c r="N35" t="n">
-        <v>425.9396246944715</v>
+        <v>405.5577540941634</v>
       </c>
       <c r="O35" t="n">
-        <v>72.16943125976081</v>
+        <v>425.9396246944728</v>
       </c>
       <c r="P35" t="n">
-        <v>206.0912878073993</v>
+        <v>276.3598060302222</v>
       </c>
       <c r="Q35" t="n">
-        <v>51.3866971108292</v>
+        <v>51.38669711082875</v>
       </c>
       <c r="R35" t="n">
-        <v>36.7710518499038</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>24.43020988856713</v>
+        <v>24.43020988856668</v>
       </c>
       <c r="T35" t="n">
-        <v>1.659050450078328</v>
+        <v>1.659050450077873</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>43.21839228829445</v>
+        <v>19.67718527588528</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37412,7 +37412,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>23.54120701241055</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>106.2312284955953</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37479,16 +37479,16 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>76.33090043653948</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>88.92318997497401</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92018850685797</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.362970381388153</v>
+        <v>2.362970381387698</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37506,7 +37506,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.102673409057388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>30.42048752506895</v>
       </c>
       <c r="J38" t="n">
-        <v>250.8254606816258</v>
+        <v>81.72884550955158</v>
       </c>
       <c r="K38" t="n">
-        <v>62.67813161305656</v>
+        <v>386.8235441842209</v>
       </c>
       <c r="L38" t="n">
-        <v>61.4562781262586</v>
+        <v>425.9396246944731</v>
       </c>
       <c r="M38" t="n">
-        <v>425.9396246944717</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>425.9396246944717</v>
+        <v>425.9396246944731</v>
       </c>
       <c r="O38" t="n">
-        <v>194.3489589413532</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>155.7332611919083</v>
       </c>
       <c r="Q38" t="n">
-        <v>263.7016877707339</v>
+        <v>51.38669711082875</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>102.4874717228858</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>24.43020988856668</v>
       </c>
       <c r="T38" t="n">
-        <v>1.659050450078328</v>
+        <v>1.659050450077873</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37610,7 +37610,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>43.21839228829445</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -37646,7 +37646,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>43.21839228829584</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>53.44001620488648</v>
+        <v>78.69387081792716</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>114.1770445880124</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>88.92318997497401</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>30.42048752506886</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>250.8254606816253</v>
       </c>
       <c r="K41" t="n">
-        <v>386.8235441842212</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>425.9396246944731</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>425.9396246944717</v>
+        <v>77.55119394153012</v>
       </c>
       <c r="O41" t="n">
-        <v>167.7097009244945</v>
+        <v>218.5072623989862</v>
       </c>
       <c r="P41" t="n">
-        <v>381.1729976596578</v>
+        <v>381.1729976596573</v>
       </c>
       <c r="Q41" t="n">
-        <v>263.7016877707338</v>
+        <v>263.7016877707333</v>
       </c>
       <c r="R41" t="n">
-        <v>36.77105184990371</v>
+        <v>36.77105184990326</v>
       </c>
       <c r="S41" t="n">
-        <v>24.43020988856705</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.659050450077788</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>43.21839228829472</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>43.2183922882961</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37932,10 +37932,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.94624917583373</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>110.6708116170655</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>114.1770445880118</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>53.44001620488977</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>30.42048752506932</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>250.8254606816257</v>
+        <v>250.8254606816253</v>
       </c>
       <c r="K44" t="n">
-        <v>386.8235441842212</v>
+        <v>386.8235441842208</v>
       </c>
       <c r="L44" t="n">
-        <v>256.4301659155569</v>
+        <v>61.45627812625806</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>75.27605000924929</v>
       </c>
       <c r="N44" t="n">
-        <v>77.55119394153057</v>
+        <v>292.2107915923626</v>
       </c>
       <c r="O44" t="n">
-        <v>72.16943125976073</v>
+        <v>161.3077372692085</v>
       </c>
       <c r="P44" t="n">
-        <v>287.4255839550808</v>
+        <v>381.1729976596573</v>
       </c>
       <c r="Q44" t="n">
-        <v>263.7016877707338</v>
+        <v>51.38669711082866</v>
       </c>
       <c r="R44" t="n">
-        <v>36.77105184990371</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.43020988856705</v>
+        <v>24.43020988856659</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.659050450077788</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>43.2183922882961</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>43.21839228829472</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>49.32804782089455</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>118.2890129720049</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>58.16548809330151</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>54.53138419274264</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>54.92018850685743</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
